--- a/AWRU Ranking Data Mathematics.xlsx
+++ b/AWRU Ranking Data Mathematics.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/code/arwu_scraper/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC341A76-8D24-5740-A8F1-1664F661C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1789,8 +1783,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,16 +1836,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1859,14 +1847,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1913,7 +1893,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1945,27 +1925,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1997,24 +1959,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2190,26 +2134,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2240,8 +2173,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2254,7 +2187,7 @@
         <v>328.5</v>
       </c>
       <c r="E2">
-        <v>89.4</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="F2">
         <v>71</v>
@@ -2263,7 +2196,7 @@
         <v>73.8</v>
       </c>
       <c r="H2">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -2272,8 +2205,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2289,7 +2222,7 @@
         <v>72.8</v>
       </c>
       <c r="F3">
-        <v>88.1</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G3">
         <v>65.8</v>
@@ -2304,8 +2237,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:10">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2315,16 +2248,16 @@
         <v>536</v>
       </c>
       <c r="D4">
-        <v>269.10000000000002</v>
+        <v>269.1</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G4">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H4">
         <v>93.2</v>
@@ -2336,8 +2269,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:10">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2347,7 +2280,7 @@
         <v>538</v>
       </c>
       <c r="D5">
-        <v>262.89999999999998</v>
+        <v>262.9</v>
       </c>
       <c r="E5">
         <v>64.5</v>
@@ -2368,8 +2301,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:10">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2388,10 +2321,10 @@
         <v>73.2</v>
       </c>
       <c r="G6">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H6">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I6">
         <v>47.7</v>
@@ -2400,8 +2333,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:10">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2414,16 +2347,16 @@
         <v>251.3</v>
       </c>
       <c r="E7">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F7">
-        <v>86.6</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G7">
         <v>65.2</v>
       </c>
       <c r="H7">
-        <v>87.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I7">
         <v>42.6</v>
@@ -2432,8 +2365,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2446,10 +2379,10 @@
         <v>243.5</v>
       </c>
       <c r="E8">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F8">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G8">
         <v>64</v>
@@ -2464,8 +2397,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2496,8 +2429,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:10">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2519,7 +2452,7 @@
         <v>79.5</v>
       </c>
       <c r="H10">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I10">
         <v>42.6</v>
@@ -2528,8 +2461,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:10">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2560,8 +2493,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:10">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2580,10 +2513,10 @@
         <v>82.3</v>
       </c>
       <c r="G12">
-        <v>65.400000000000006</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="H12">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I12">
         <v>36.9</v>
@@ -2592,8 +2525,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:10">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2624,8 +2557,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:10">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2656,8 +2589,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:10">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2673,7 +2606,7 @@
         <v>65.8</v>
       </c>
       <c r="F15">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G15">
         <v>73.7</v>
@@ -2688,8 +2621,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:10">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2708,7 +2641,7 @@
         <v>77.5</v>
       </c>
       <c r="G16">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H16">
         <v>68.8</v>
@@ -2720,8 +2653,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:10">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2737,7 +2670,7 @@
         <v>48.5</v>
       </c>
       <c r="F17">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G17">
         <v>64.3</v>
@@ -2752,8 +2685,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:10">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2772,7 +2705,7 @@
         <v>81.3</v>
       </c>
       <c r="G18">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H18">
         <v>70.7</v>
@@ -2784,8 +2717,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:10">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2816,8 +2749,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:10">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2848,8 +2781,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:10">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2871,7 +2804,7 @@
         <v>62.5</v>
       </c>
       <c r="H21">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2880,8 +2813,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:10">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2912,8 +2845,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:10">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2932,7 +2865,7 @@
         <v>68.7</v>
       </c>
       <c r="G23">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H23">
         <v>72.5</v>
@@ -2944,8 +2877,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:10">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2976,8 +2909,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:10">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2999,7 +2932,7 @@
         <v>79</v>
       </c>
       <c r="H25">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I25">
         <v>26.1</v>
@@ -3008,8 +2941,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:10">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -3028,10 +2961,10 @@
         <v>83.3</v>
       </c>
       <c r="G26">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H26">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3040,8 +2973,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:10">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -3060,7 +2993,7 @@
         <v>64.5</v>
       </c>
       <c r="G27">
-        <v>79.400000000000006</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="H27">
         <v>68.8</v>
@@ -3072,8 +3005,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:10">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -3089,7 +3022,7 @@
         <v>59.5</v>
       </c>
       <c r="F28">
-        <v>64.599999999999994</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G28">
         <v>68.5</v>
@@ -3104,8 +3037,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:10">
+      <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -3118,7 +3051,7 @@
         <v>175.5</v>
       </c>
       <c r="E29">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F29">
         <v>68</v>
@@ -3136,8 +3069,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:10">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -3168,8 +3101,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:10">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3191,7 +3124,7 @@
         <v>60.2</v>
       </c>
       <c r="H31">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3200,8 +3133,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
@@ -3220,7 +3153,7 @@
         <v>72</v>
       </c>
       <c r="G32">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="H32">
         <v>51.3</v>
@@ -3232,8 +3165,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
@@ -3252,7 +3185,7 @@
         <v>68.7</v>
       </c>
       <c r="G33">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="H33">
         <v>32.4</v>
@@ -3264,8 +3197,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
@@ -3278,10 +3211,10 @@
         <v>167.3</v>
       </c>
       <c r="E34">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F34">
-        <v>70.599999999999994</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G34">
         <v>78.8</v>
@@ -3296,8 +3229,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" t="s">
@@ -3328,8 +3261,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" t="s">
@@ -3348,7 +3281,7 @@
         <v>78.2</v>
       </c>
       <c r="G36">
-        <v>78.900000000000006</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="H36">
         <v>32.4</v>
@@ -3360,8 +3293,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>15</v>
       </c>
       <c r="B37" t="s">
@@ -3371,16 +3304,16 @@
         <v>536</v>
       </c>
       <c r="D37">
-        <v>163.19999999999999</v>
+        <v>163.2</v>
       </c>
       <c r="E37">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="F37">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G37">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H37">
         <v>48.7</v>
@@ -3392,8 +3325,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
         <v>16</v>
       </c>
       <c r="B38" t="s">
@@ -3409,10 +3342,10 @@
         <v>56.9</v>
       </c>
       <c r="F38">
-        <v>64.400000000000006</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="G38">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H38">
         <v>56.2</v>
@@ -3424,8 +3357,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
       <c r="B39" t="s">
@@ -3441,7 +3374,7 @@
         <v>59.9</v>
       </c>
       <c r="F39">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G39">
         <v>65.5</v>
@@ -3456,8 +3389,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
         <v>18</v>
       </c>
       <c r="B40" t="s">
@@ -3473,7 +3406,7 @@
         <v>47.3</v>
       </c>
       <c r="F40">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G40">
         <v>65.3</v>
@@ -3488,8 +3421,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="B41" t="s">
@@ -3508,7 +3441,7 @@
         <v>82.5</v>
       </c>
       <c r="G41">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H41">
         <v>56.2</v>
@@ -3520,8 +3453,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
@@ -3534,7 +3467,7 @@
         <v>158.4</v>
       </c>
       <c r="E42">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F42">
         <v>69</v>
@@ -3543,7 +3476,7 @@
         <v>55.5</v>
       </c>
       <c r="H42">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3552,8 +3485,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
         <v>20</v>
       </c>
       <c r="B43" t="s">
@@ -3566,16 +3499,16 @@
         <v>157.9</v>
       </c>
       <c r="E43">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F43">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G43">
         <v>70.7</v>
       </c>
       <c r="H43">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3584,8 +3517,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
@@ -3601,7 +3534,7 @@
         <v>54.4</v>
       </c>
       <c r="F44">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="G44">
         <v>70.3</v>
@@ -3616,8 +3549,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
         <v>22</v>
       </c>
       <c r="B45" t="s">
@@ -3627,7 +3560,7 @@
         <v>537</v>
       </c>
       <c r="D45">
-        <v>156.19999999999999</v>
+        <v>156.2</v>
       </c>
       <c r="E45">
         <v>54.7</v>
@@ -3636,7 +3569,7 @@
         <v>77.7</v>
       </c>
       <c r="G45">
-        <v>69.900000000000006</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H45">
         <v>48.7</v>
@@ -3648,8 +3581,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
         <v>23</v>
       </c>
       <c r="B46" t="s">
@@ -3671,7 +3604,7 @@
         <v>82.2</v>
       </c>
       <c r="H46">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3680,8 +3613,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
         <v>24</v>
       </c>
       <c r="B47" t="s">
@@ -3691,19 +3624,19 @@
         <v>539</v>
       </c>
       <c r="D47">
-        <v>152.19999999999999</v>
+        <v>152.2</v>
       </c>
       <c r="E47">
         <v>57.7</v>
       </c>
       <c r="F47">
-        <v>75.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G47">
         <v>85.2</v>
       </c>
       <c r="H47">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3712,8 +3645,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
         <v>25</v>
       </c>
       <c r="B48" t="s">
@@ -3723,7 +3656,7 @@
         <v>546</v>
       </c>
       <c r="D48">
-        <v>151.19999999999999</v>
+        <v>151.2</v>
       </c>
       <c r="E48">
         <v>68.2</v>
@@ -3744,8 +3677,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
         <v>26</v>
       </c>
       <c r="B49" t="s">
@@ -3755,7 +3688,7 @@
         <v>536</v>
       </c>
       <c r="D49">
-        <v>150.80000000000001</v>
+        <v>150.8</v>
       </c>
       <c r="E49">
         <v>56.6</v>
@@ -3764,7 +3697,7 @@
         <v>63.2</v>
       </c>
       <c r="G49">
-        <v>69.900000000000006</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H49">
         <v>48.7</v>
@@ -3776,8 +3709,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
         <v>27</v>
       </c>
       <c r="B50" t="s">
@@ -3796,7 +3729,7 @@
         <v>77.2</v>
       </c>
       <c r="G50">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="H50">
         <v>48.7</v>
@@ -3808,8 +3741,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>28</v>
       </c>
       <c r="B51" t="s">
@@ -3825,13 +3758,13 @@
         <v>62.4</v>
       </c>
       <c r="F51">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G51">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H51">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3840,8 +3773,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
         <v>29</v>
       </c>
       <c r="B52" t="s">
@@ -3869,8 +3802,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
@@ -3883,7 +3816,7 @@
         <v>54.8</v>
       </c>
       <c r="F53">
-        <v>72.400000000000006</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="G53">
         <v>76</v>
@@ -3898,8 +3831,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
@@ -3915,7 +3848,7 @@
         <v>66.5</v>
       </c>
       <c r="G54">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="H54">
         <v>42.9</v>
@@ -3927,8 +3860,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
         <v>29</v>
       </c>
       <c r="B55" t="s">
@@ -3941,7 +3874,7 @@
         <v>44.4</v>
       </c>
       <c r="F55">
-        <v>87.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G55">
         <v>74.3</v>
@@ -3956,8 +3889,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
         <v>29</v>
       </c>
       <c r="B56" t="s">
@@ -3967,13 +3900,13 @@
         <v>548</v>
       </c>
       <c r="E56">
-        <v>82.6</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F56">
         <v>96.2</v>
       </c>
       <c r="G56">
-        <v>93.4</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3985,8 +3918,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
         <v>29</v>
       </c>
       <c r="B57" t="s">
@@ -4002,7 +3935,7 @@
         <v>67.5</v>
       </c>
       <c r="G57">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="H57">
         <v>42.9</v>
@@ -4014,8 +3947,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
         <v>29</v>
       </c>
       <c r="B58" t="s">
@@ -4043,8 +3976,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
         <v>29</v>
       </c>
       <c r="B59" t="s">
@@ -4072,8 +4005,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
         <v>29</v>
       </c>
       <c r="B60" t="s">
@@ -4101,8 +4034,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
         <v>29</v>
       </c>
       <c r="B61" t="s">
@@ -4115,10 +4048,10 @@
         <v>69</v>
       </c>
       <c r="F61">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G61">
-        <v>71.599999999999994</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="H61">
         <v>28.1</v>
@@ -4130,8 +4063,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
         <v>29</v>
       </c>
       <c r="B62" t="s">
@@ -4147,7 +4080,7 @@
         <v>71.8</v>
       </c>
       <c r="G62">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="H62">
         <v>28.1</v>
@@ -4159,8 +4092,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
         <v>29</v>
       </c>
       <c r="B63" t="s">
@@ -4179,7 +4112,7 @@
         <v>59.9</v>
       </c>
       <c r="H63">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4188,8 +4121,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
         <v>29</v>
       </c>
       <c r="B64" t="s">
@@ -4202,7 +4135,7 @@
         <v>66</v>
       </c>
       <c r="F64">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G64">
         <v>61</v>
@@ -4217,8 +4150,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
         <v>29</v>
       </c>
       <c r="B65" t="s">
@@ -4234,7 +4167,7 @@
         <v>66.3</v>
       </c>
       <c r="G65">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H65">
         <v>42.9</v>
@@ -4246,8 +4179,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
         <v>29</v>
       </c>
       <c r="B66" t="s">
@@ -4260,13 +4193,13 @@
         <v>51.2</v>
       </c>
       <c r="F66">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="G66">
         <v>81.7</v>
       </c>
       <c r="H66">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4275,8 +4208,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
         <v>29</v>
       </c>
       <c r="B67" t="s">
@@ -4295,7 +4228,7 @@
         <v>73.7</v>
       </c>
       <c r="H67">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4304,8 +4237,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
         <v>29</v>
       </c>
       <c r="B68" t="s">
@@ -4333,8 +4266,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
         <v>29</v>
       </c>
       <c r="B69" t="s">
@@ -4362,8 +4295,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
         <v>29</v>
       </c>
       <c r="B70" t="s">
@@ -4376,10 +4309,10 @@
         <v>51.3</v>
       </c>
       <c r="F70">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G70">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H70">
         <v>28.1</v>
@@ -4391,8 +4324,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
         <v>29</v>
       </c>
       <c r="B71" t="s">
@@ -4405,13 +4338,13 @@
         <v>60.7</v>
       </c>
       <c r="F71">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="G71">
         <v>62.4</v>
       </c>
       <c r="H71">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4420,8 +4353,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
         <v>29</v>
       </c>
       <c r="B72" t="s">
@@ -4431,7 +4364,7 @@
         <v>550</v>
       </c>
       <c r="E72">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F72">
         <v>60.9</v>
@@ -4440,7 +4373,7 @@
         <v>76</v>
       </c>
       <c r="H72">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4449,8 +4382,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
         <v>29</v>
       </c>
       <c r="B73" t="s">
@@ -4478,8 +4411,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
         <v>29</v>
       </c>
       <c r="B74" t="s">
@@ -4492,7 +4425,7 @@
         <v>46.4</v>
       </c>
       <c r="F74">
-        <v>68.099999999999994</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G74">
         <v>61.2</v>
@@ -4507,8 +4440,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
         <v>29</v>
       </c>
       <c r="B75" t="s">
@@ -4521,7 +4454,7 @@
         <v>42.9</v>
       </c>
       <c r="F75">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G75">
         <v>78.7</v>
@@ -4536,8 +4469,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
         <v>29</v>
       </c>
       <c r="B76" t="s">
@@ -4547,10 +4480,10 @@
         <v>537</v>
       </c>
       <c r="E76">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="F76">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G76">
         <v>60.7</v>
@@ -4565,8 +4498,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
         <v>30</v>
       </c>
       <c r="B77" t="s">
@@ -4579,7 +4512,7 @@
         <v>31.4</v>
       </c>
       <c r="F77">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G77">
         <v>62.6</v>
@@ -4594,8 +4527,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
         <v>30</v>
       </c>
       <c r="B78" t="s">
@@ -4623,8 +4556,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
         <v>30</v>
       </c>
       <c r="B79" t="s">
@@ -4652,8 +4585,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
         <v>30</v>
       </c>
       <c r="B80" t="s">
@@ -4669,7 +4602,7 @@
         <v>67</v>
       </c>
       <c r="G80">
-        <v>65.900000000000006</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="H80">
         <v>42.9</v>
@@ -4681,8 +4614,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
         <v>30</v>
       </c>
       <c r="B81" t="s">
@@ -4710,8 +4643,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
         <v>30</v>
       </c>
       <c r="B82" t="s">
@@ -4727,7 +4660,7 @@
         <v>60.4</v>
       </c>
       <c r="G82">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H82">
         <v>32.4</v>
@@ -4739,8 +4672,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
         <v>30</v>
       </c>
       <c r="B83" t="s">
@@ -4768,8 +4701,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
         <v>30</v>
       </c>
       <c r="B84" t="s">
@@ -4782,10 +4715,10 @@
         <v>50.9</v>
       </c>
       <c r="F84">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="G84">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H84">
         <v>28.1</v>
@@ -4797,8 +4730,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
         <v>30</v>
       </c>
       <c r="B85" t="s">
@@ -4826,8 +4759,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
         <v>30</v>
       </c>
       <c r="B86" t="s">
@@ -4843,7 +4776,7 @@
         <v>69.3</v>
       </c>
       <c r="G86">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H86">
         <v>28.1</v>
@@ -4855,8 +4788,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
         <v>30</v>
       </c>
       <c r="B87" t="s">
@@ -4866,7 +4799,7 @@
         <v>546</v>
       </c>
       <c r="E87">
-        <v>69.599999999999994</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F87">
         <v>72.3</v>
@@ -4884,8 +4817,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
         <v>30</v>
       </c>
       <c r="B88" t="s">
@@ -4895,7 +4828,7 @@
         <v>546</v>
       </c>
       <c r="E88">
-        <v>64.400000000000006</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F88">
         <v>70.7</v>
@@ -4913,8 +4846,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
         <v>30</v>
       </c>
       <c r="B89" t="s">
@@ -4927,10 +4860,10 @@
         <v>50.9</v>
       </c>
       <c r="F89">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G89">
-        <v>64.599999999999994</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="H89">
         <v>28.1</v>
@@ -4942,8 +4875,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
         <v>30</v>
       </c>
       <c r="B90" t="s">
@@ -4956,7 +4889,7 @@
         <v>52</v>
       </c>
       <c r="F90">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G90">
         <v>81.3</v>
@@ -4971,8 +4904,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
         <v>30</v>
       </c>
       <c r="B91" t="s">
@@ -4982,7 +4915,7 @@
         <v>555</v>
       </c>
       <c r="E91">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="F91">
         <v>72</v>
@@ -5000,8 +4933,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
         <v>30</v>
       </c>
       <c r="B92" t="s">
@@ -5020,7 +4953,7 @@
         <v>75.3</v>
       </c>
       <c r="H92">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -5029,8 +4962,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
         <v>30</v>
       </c>
       <c r="B93" t="s">
@@ -5046,7 +4979,7 @@
         <v>64.2</v>
       </c>
       <c r="G93">
-        <v>70.099999999999994</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H93">
         <v>16.2</v>
@@ -5058,8 +4991,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
         <v>30</v>
       </c>
       <c r="B94" t="s">
@@ -5075,7 +5008,7 @@
         <v>71.3</v>
       </c>
       <c r="G94">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H94">
         <v>22.9</v>
@@ -5087,8 +5020,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
         <v>30</v>
       </c>
       <c r="B95" t="s">
@@ -5116,8 +5049,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
         <v>30</v>
       </c>
       <c r="B96" t="s">
@@ -5136,7 +5069,7 @@
         <v>69</v>
       </c>
       <c r="H96">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -5145,8 +5078,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
         <v>30</v>
       </c>
       <c r="B97" t="s">
@@ -5159,10 +5092,10 @@
         <v>51.2</v>
       </c>
       <c r="F97">
-        <v>70.099999999999994</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="G97">
-        <v>70.099999999999994</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H97">
         <v>32.4</v>
@@ -5174,8 +5107,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
         <v>30</v>
       </c>
       <c r="B98" t="s">
@@ -5188,13 +5121,13 @@
         <v>35.5</v>
       </c>
       <c r="F98">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G98">
         <v>68.5</v>
       </c>
       <c r="H98">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -5203,8 +5136,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
         <v>30</v>
       </c>
       <c r="B99" t="s">
@@ -5232,8 +5165,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
         <v>30</v>
       </c>
       <c r="B100" t="s">
@@ -5246,10 +5179,10 @@
         <v>38.4</v>
       </c>
       <c r="F100">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G100">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H100">
         <v>42.9</v>
@@ -5261,8 +5194,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
         <v>30</v>
       </c>
       <c r="B101" t="s">
@@ -5290,8 +5223,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
         <v>31</v>
       </c>
       <c r="B102" t="s">
@@ -5307,7 +5240,7 @@
         <v>77.2</v>
       </c>
       <c r="G102">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H102">
         <v>16.2</v>
@@ -5319,8 +5252,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
         <v>31</v>
       </c>
       <c r="B103" t="s">
@@ -5336,7 +5269,7 @@
         <v>74.7</v>
       </c>
       <c r="G103">
-        <v>79.400000000000006</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="H103">
         <v>22.9</v>
@@ -5348,8 +5281,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
         <v>31</v>
       </c>
       <c r="B104" t="s">
@@ -5377,8 +5310,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
         <v>31</v>
       </c>
       <c r="B105" t="s">
@@ -5391,10 +5324,10 @@
         <v>40.4</v>
       </c>
       <c r="F105">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G105">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H105">
         <v>22.9</v>
@@ -5406,8 +5339,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
         <v>31</v>
       </c>
       <c r="B106" t="s">
@@ -5417,16 +5350,16 @@
         <v>544</v>
       </c>
       <c r="E106">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="F106">
-        <v>64.599999999999994</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G106">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H106">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5435,8 +5368,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
         <v>31</v>
       </c>
       <c r="B107" t="s">
@@ -5464,8 +5397,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
         <v>31</v>
       </c>
       <c r="B108" t="s">
@@ -5481,7 +5414,7 @@
         <v>100</v>
       </c>
       <c r="G108">
-        <v>96.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -5493,8 +5426,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
         <v>31</v>
       </c>
       <c r="B109" t="s">
@@ -5522,8 +5455,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
         <v>31</v>
       </c>
       <c r="B110" t="s">
@@ -5536,7 +5469,7 @@
         <v>44.5</v>
       </c>
       <c r="F110">
-        <v>71.400000000000006</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G110">
         <v>68.3</v>
@@ -5551,8 +5484,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
         <v>31</v>
       </c>
       <c r="B111" t="s">
@@ -5565,13 +5498,13 @@
         <v>33.4</v>
       </c>
       <c r="F111">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G111">
         <v>76.2</v>
       </c>
       <c r="H111">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -5580,8 +5513,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
         <v>31</v>
       </c>
       <c r="B112" t="s">
@@ -5591,10 +5524,10 @@
         <v>546</v>
       </c>
       <c r="E112">
-        <v>71.599999999999994</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="F112">
-        <v>85.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G112">
         <v>48.5</v>
@@ -5609,8 +5542,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
         <v>31</v>
       </c>
       <c r="B113" t="s">
@@ -5623,7 +5556,7 @@
         <v>42.4</v>
       </c>
       <c r="F113">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G113">
         <v>79</v>
@@ -5638,8 +5571,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
         <v>31</v>
       </c>
       <c r="B114" t="s">
@@ -5652,10 +5585,10 @@
         <v>41.4</v>
       </c>
       <c r="F114">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G114">
-        <v>65.400000000000006</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="H114">
         <v>32.4</v>
@@ -5667,8 +5600,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
         <v>31</v>
       </c>
       <c r="B115" t="s">
@@ -5678,16 +5611,16 @@
         <v>537</v>
       </c>
       <c r="E115">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="F115">
         <v>65.2</v>
       </c>
       <c r="G115">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H115">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -5696,8 +5629,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
         <v>31</v>
       </c>
       <c r="B116" t="s">
@@ -5713,7 +5646,7 @@
         <v>77.2</v>
       </c>
       <c r="G116">
-        <v>68.099999999999994</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="H116">
         <v>22.9</v>
@@ -5725,8 +5658,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
         <v>31</v>
       </c>
       <c r="B117" t="s">
@@ -5754,8 +5687,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
         <v>31</v>
       </c>
       <c r="B118" t="s">
@@ -5768,7 +5701,7 @@
         <v>49.6</v>
       </c>
       <c r="F118">
-        <v>67.099999999999994</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G118">
         <v>67.2</v>
@@ -5783,8 +5716,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
         <v>31</v>
       </c>
       <c r="B119" t="s">
@@ -5812,8 +5745,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
         <v>31</v>
       </c>
       <c r="B120" t="s">
@@ -5841,8 +5774,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
         <v>31</v>
       </c>
       <c r="B121" t="s">
@@ -5858,7 +5791,7 @@
         <v>85.8</v>
       </c>
       <c r="G121">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="H121">
         <v>22.9</v>
@@ -5870,8 +5803,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
         <v>31</v>
       </c>
       <c r="B122" t="s">
@@ -5884,7 +5817,7 @@
         <v>54.9</v>
       </c>
       <c r="F122">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G122">
         <v>66.3</v>
@@ -5899,8 +5832,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
         <v>31</v>
       </c>
       <c r="B123" t="s">
@@ -5928,8 +5861,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
         <v>31</v>
       </c>
       <c r="B124" t="s">
@@ -5942,7 +5875,7 @@
         <v>62.1</v>
       </c>
       <c r="F124">
-        <v>99.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G124">
         <v>55.3</v>
@@ -5957,8 +5890,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
         <v>31</v>
       </c>
       <c r="B125" t="s">
@@ -5986,8 +5919,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
         <v>31</v>
       </c>
       <c r="B126" t="s">
@@ -6003,7 +5936,7 @@
         <v>62.1</v>
       </c>
       <c r="G126">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H126">
         <v>22.9</v>
@@ -6015,8 +5948,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
         <v>31</v>
       </c>
       <c r="B127" t="s">
@@ -6044,8 +5977,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
         <v>31</v>
       </c>
       <c r="B128" t="s">
@@ -6058,13 +5991,13 @@
         <v>27.2</v>
       </c>
       <c r="F128">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G128">
         <v>79</v>
       </c>
       <c r="H128">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -6073,8 +6006,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
         <v>31</v>
       </c>
       <c r="B129" t="s">
@@ -6087,7 +6020,7 @@
         <v>31.7</v>
       </c>
       <c r="F129">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G129">
         <v>79.3</v>
@@ -6102,8 +6035,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
         <v>31</v>
       </c>
       <c r="B130" t="s">
@@ -6116,10 +6049,10 @@
         <v>40.5</v>
       </c>
       <c r="F130">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="G130">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H130">
         <v>28.1</v>
@@ -6131,8 +6064,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
         <v>31</v>
       </c>
       <c r="B131" t="s">
@@ -6145,10 +6078,10 @@
         <v>44.3</v>
       </c>
       <c r="F131">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G131">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="H131">
         <v>28.1</v>
@@ -6160,8 +6093,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
         <v>31</v>
       </c>
       <c r="B132" t="s">
@@ -6189,8 +6122,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
         <v>31</v>
       </c>
       <c r="B133" t="s">
@@ -6200,7 +6133,7 @@
         <v>537</v>
       </c>
       <c r="E133">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="F133">
         <v>79.3</v>
@@ -6218,8 +6151,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
         <v>31</v>
       </c>
       <c r="B134" t="s">
@@ -6232,7 +6165,7 @@
         <v>43.8</v>
       </c>
       <c r="F134">
-        <v>71.900000000000006</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G134">
         <v>75</v>
@@ -6247,8 +6180,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
         <v>31</v>
       </c>
       <c r="B135" t="s">
@@ -6276,8 +6209,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
         <v>31</v>
       </c>
       <c r="B136" t="s">
@@ -6290,7 +6223,7 @@
         <v>35.4</v>
       </c>
       <c r="F136">
-        <v>65.900000000000006</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G136">
         <v>82</v>
@@ -6305,8 +6238,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
         <v>31</v>
       </c>
       <c r="B137" t="s">
@@ -6319,7 +6252,7 @@
         <v>43.8</v>
       </c>
       <c r="F137">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G137">
         <v>82.2</v>
@@ -6334,8 +6267,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
         <v>31</v>
       </c>
       <c r="B138" t="s">
@@ -6354,7 +6287,7 @@
         <v>63.2</v>
       </c>
       <c r="H138">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -6363,8 +6296,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
         <v>31</v>
       </c>
       <c r="B139" t="s">
@@ -6377,7 +6310,7 @@
         <v>42.6</v>
       </c>
       <c r="F139">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G139">
         <v>80.5</v>
@@ -6392,8 +6325,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
         <v>31</v>
       </c>
       <c r="B140" t="s">
@@ -6421,8 +6354,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
         <v>31</v>
       </c>
       <c r="B141" t="s">
@@ -6438,7 +6371,7 @@
         <v>59.1</v>
       </c>
       <c r="G141">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H141">
         <v>22.9</v>
@@ -6450,8 +6383,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
         <v>31</v>
       </c>
       <c r="B142" t="s">
@@ -6467,7 +6400,7 @@
         <v>69.8</v>
       </c>
       <c r="G142">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H142">
         <v>28.1</v>
@@ -6479,8 +6412,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
         <v>31</v>
       </c>
       <c r="B143" t="s">
@@ -6493,7 +6426,7 @@
         <v>37.5</v>
       </c>
       <c r="F143">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G143">
         <v>64.3</v>
@@ -6508,8 +6441,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
         <v>31</v>
       </c>
       <c r="B144" t="s">
@@ -6525,7 +6458,7 @@
         <v>64.2</v>
       </c>
       <c r="G144">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="H144">
         <v>22.9</v>
@@ -6537,8 +6470,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
         <v>31</v>
       </c>
       <c r="B145" t="s">
@@ -6551,10 +6484,10 @@
         <v>48.2</v>
       </c>
       <c r="F145">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="G145">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H145">
         <v>22.9</v>
@@ -6566,8 +6499,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
         <v>31</v>
       </c>
       <c r="B146" t="s">
@@ -6580,10 +6513,10 @@
         <v>37</v>
       </c>
       <c r="F146">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G146">
-        <v>70.099999999999994</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H146">
         <v>32.4</v>
@@ -6595,8 +6528,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
         <v>31</v>
       </c>
       <c r="B147" t="s">
@@ -6624,8 +6557,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
         <v>31</v>
       </c>
       <c r="B148" t="s">
@@ -6653,8 +6586,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
         <v>31</v>
       </c>
       <c r="B149" t="s">
@@ -6667,7 +6600,7 @@
         <v>44.5</v>
       </c>
       <c r="F149">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G149">
         <v>82.3</v>
@@ -6682,8 +6615,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
         <v>31</v>
       </c>
       <c r="B150" t="s">
@@ -6711,8 +6644,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
         <v>31</v>
       </c>
       <c r="B151" t="s">
@@ -6740,8 +6673,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
         <v>32</v>
       </c>
       <c r="B152" t="s">
@@ -6757,7 +6690,7 @@
         <v>70.8</v>
       </c>
       <c r="G152">
-        <v>82.6</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="H152">
         <v>16.2</v>
@@ -6769,8 +6702,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
         <v>32</v>
       </c>
       <c r="B153" t="s">
@@ -6783,7 +6716,7 @@
         <v>58.7</v>
       </c>
       <c r="F153">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G153">
         <v>50.2</v>
@@ -6798,8 +6731,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
         <v>32</v>
       </c>
       <c r="B154" t="s">
@@ -6812,7 +6745,7 @@
         <v>60.7</v>
       </c>
       <c r="F154">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G154">
         <v>54.9</v>
@@ -6827,8 +6760,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
         <v>32</v>
       </c>
       <c r="B155" t="s">
@@ -6856,8 +6789,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
         <v>32</v>
       </c>
       <c r="B156" t="s">
@@ -6885,8 +6818,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
         <v>32</v>
       </c>
       <c r="B157" t="s">
@@ -6899,10 +6832,10 @@
         <v>63.7</v>
       </c>
       <c r="F157">
-        <v>87.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G157">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -6914,8 +6847,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
         <v>32</v>
       </c>
       <c r="B158" t="s">
@@ -6943,8 +6876,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
         <v>32</v>
       </c>
       <c r="B159" t="s">
@@ -6972,8 +6905,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
         <v>32</v>
       </c>
       <c r="B160" t="s">
@@ -6989,7 +6922,7 @@
         <v>59.1</v>
       </c>
       <c r="G160">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H160">
         <v>22.9</v>
@@ -7001,8 +6934,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
         <v>32</v>
       </c>
       <c r="B161" t="s">
@@ -7030,8 +6963,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
         <v>32</v>
       </c>
       <c r="B162" t="s">
@@ -7044,7 +6977,7 @@
         <v>61.2</v>
       </c>
       <c r="F162">
-        <v>83.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="G162">
         <v>54.2</v>
@@ -7059,8 +6992,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
         <v>32</v>
       </c>
       <c r="B163" t="s">
@@ -7088,8 +7021,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
         <v>32</v>
       </c>
       <c r="B164" t="s">
@@ -7099,7 +7032,7 @@
         <v>536</v>
       </c>
       <c r="E164">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="F164">
         <v>69.2</v>
@@ -7117,8 +7050,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
         <v>32</v>
       </c>
       <c r="B165" t="s">
@@ -7134,7 +7067,7 @@
         <v>65</v>
       </c>
       <c r="G165">
-        <v>72.099999999999994</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="H165">
         <v>16.2</v>
@@ -7146,8 +7079,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
         <v>32</v>
       </c>
       <c r="B166" t="s">
@@ -7175,8 +7108,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
         <v>32</v>
       </c>
       <c r="B167" t="s">
@@ -7204,8 +7137,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
         <v>32</v>
       </c>
       <c r="B168" t="s">
@@ -7218,7 +7151,7 @@
         <v>31.2</v>
       </c>
       <c r="F168">
-        <v>68.099999999999994</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G168">
         <v>63.6</v>
@@ -7233,8 +7166,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
         <v>32</v>
       </c>
       <c r="B169" t="s">
@@ -7262,8 +7195,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
         <v>32</v>
       </c>
       <c r="B170" t="s">
@@ -7291,8 +7224,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
         <v>32</v>
       </c>
       <c r="B171" t="s">
@@ -7302,7 +7235,7 @@
         <v>541</v>
       </c>
       <c r="E171">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="F171">
         <v>59.8</v>
@@ -7320,8 +7253,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
         <v>32</v>
       </c>
       <c r="B172" t="s">
@@ -7334,10 +7267,10 @@
         <v>57.2</v>
       </c>
       <c r="F172">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G172">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -7349,8 +7282,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
         <v>32</v>
       </c>
       <c r="B173" t="s">
@@ -7378,8 +7311,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
         <v>32</v>
       </c>
       <c r="B174" t="s">
@@ -7389,7 +7322,7 @@
         <v>546</v>
       </c>
       <c r="E174">
-        <v>64.400000000000006</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F174">
         <v>70.5</v>
@@ -7407,8 +7340,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
         <v>32</v>
       </c>
       <c r="B175" t="s">
@@ -7421,7 +7354,7 @@
         <v>45.8</v>
       </c>
       <c r="F175">
-        <v>71.900000000000006</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G175">
         <v>81</v>
@@ -7436,8 +7369,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
         <v>32</v>
       </c>
       <c r="B176" t="s">
@@ -7450,10 +7383,10 @@
         <v>58</v>
       </c>
       <c r="F176">
-        <v>82.9</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="G176">
-        <v>70.900000000000006</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -7465,8 +7398,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
         <v>32</v>
       </c>
       <c r="B177" t="s">
@@ -7482,7 +7415,7 @@
         <v>99.2</v>
       </c>
       <c r="G177">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -7494,8 +7427,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
         <v>32</v>
       </c>
       <c r="B178" t="s">
@@ -7511,7 +7444,7 @@
         <v>66.8</v>
       </c>
       <c r="G178">
-        <v>71.400000000000006</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H178">
         <v>16.2</v>
@@ -7523,8 +7456,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
         <v>32</v>
       </c>
       <c r="B179" t="s">
@@ -7552,8 +7485,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
         <v>32</v>
       </c>
       <c r="B180" t="s">
@@ -7581,8 +7514,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
         <v>32</v>
       </c>
       <c r="B181" t="s">
@@ -7610,8 +7543,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
         <v>32</v>
       </c>
       <c r="B182" t="s">
@@ -7639,8 +7572,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
         <v>32</v>
       </c>
       <c r="B183" t="s">
@@ -7656,7 +7589,7 @@
         <v>69.8</v>
       </c>
       <c r="G183">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="H183">
         <v>16.2</v>
@@ -7668,8 +7601,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
         <v>32</v>
       </c>
       <c r="B184" t="s">
@@ -7685,7 +7618,7 @@
         <v>71.7</v>
       </c>
       <c r="G184">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H184">
         <v>28.1</v>
@@ -7697,8 +7630,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
         <v>32</v>
       </c>
       <c r="B185" t="s">
@@ -7726,8 +7659,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
         <v>32</v>
       </c>
       <c r="B186" t="s">
@@ -7737,7 +7670,7 @@
         <v>540</v>
       </c>
       <c r="E186">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="F186">
         <v>62.1</v>
@@ -7755,8 +7688,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
         <v>32</v>
       </c>
       <c r="B187" t="s">
@@ -7784,8 +7717,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
         <v>32</v>
       </c>
       <c r="B188" t="s">
@@ -7813,8 +7746,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
         <v>32</v>
       </c>
       <c r="B189" t="s">
@@ -7830,7 +7763,7 @@
         <v>72.2</v>
       </c>
       <c r="G189">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H189">
         <v>22.9</v>
@@ -7842,8 +7775,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
         <v>32</v>
       </c>
       <c r="B190" t="s">
@@ -7859,7 +7792,7 @@
         <v>65.5</v>
       </c>
       <c r="G190">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H190">
         <v>22.9</v>
@@ -7871,8 +7804,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
+    <row r="191" spans="1:10">
+      <c r="A191" t="s">
         <v>32</v>
       </c>
       <c r="B191" t="s">
@@ -7900,8 +7833,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
+    <row r="192" spans="1:10">
+      <c r="A192" t="s">
         <v>32</v>
       </c>
       <c r="B192" t="s">
@@ -7911,13 +7844,13 @@
         <v>536</v>
       </c>
       <c r="E192">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="F192">
-        <v>64.599999999999994</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G192">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H192">
         <v>28.1</v>
@@ -7929,8 +7862,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
         <v>32</v>
       </c>
       <c r="B193" t="s">
@@ -7943,7 +7876,7 @@
         <v>47.3</v>
       </c>
       <c r="F193">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G193">
         <v>63.9</v>
@@ -7958,8 +7891,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
         <v>32</v>
       </c>
       <c r="B194" t="s">
@@ -7969,10 +7902,10 @@
         <v>537</v>
       </c>
       <c r="E194">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="F194">
-        <v>69.900000000000006</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G194">
         <v>64</v>
@@ -7987,8 +7920,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
         <v>32</v>
       </c>
       <c r="B195" t="s">
@@ -7998,13 +7931,13 @@
         <v>562</v>
       </c>
       <c r="E195">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="F195">
         <v>70</v>
       </c>
       <c r="G195">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="H195">
         <v>16.2</v>
@@ -8016,8 +7949,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
+    <row r="196" spans="1:10">
+      <c r="A196" t="s">
         <v>32</v>
       </c>
       <c r="B196" t="s">
@@ -8045,8 +7978,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
+    <row r="197" spans="1:10">
+      <c r="A197" t="s">
         <v>32</v>
       </c>
       <c r="B197" t="s">
@@ -8056,7 +7989,7 @@
         <v>536</v>
       </c>
       <c r="E197">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="F197">
         <v>52.8</v>
@@ -8065,7 +7998,7 @@
         <v>68.2</v>
       </c>
       <c r="H197">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -8074,8 +8007,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
+    <row r="198" spans="1:10">
+      <c r="A198" t="s">
         <v>32</v>
       </c>
       <c r="B198" t="s">
@@ -8085,13 +8018,13 @@
         <v>536</v>
       </c>
       <c r="E198">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="F198">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G198">
-        <v>70.900000000000006</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="H198">
         <v>22.9</v>
@@ -8103,8 +8036,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
         <v>32</v>
       </c>
       <c r="B199" t="s">
@@ -8132,8 +8065,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
+    <row r="200" spans="1:10">
+      <c r="A200" t="s">
         <v>32</v>
       </c>
       <c r="B200" t="s">
@@ -8143,7 +8076,7 @@
         <v>536</v>
       </c>
       <c r="E200">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="F200">
         <v>69</v>
@@ -8161,8 +8094,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
+    <row r="201" spans="1:10">
+      <c r="A201" t="s">
         <v>32</v>
       </c>
       <c r="B201" t="s">
@@ -8175,10 +8108,10 @@
         <v>38.9</v>
       </c>
       <c r="F201">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G201">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H201">
         <v>16.2</v>
@@ -8190,8 +8123,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
+    <row r="202" spans="1:10">
+      <c r="A202" t="s">
         <v>32</v>
       </c>
       <c r="B202" t="s">
@@ -8219,8 +8152,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
+    <row r="203" spans="1:10">
+      <c r="A203" t="s">
         <v>33</v>
       </c>
       <c r="B203" t="s">
@@ -8233,7 +8166,7 @@
         <v>55.2</v>
       </c>
       <c r="F203">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G203">
         <v>83.5</v>
@@ -8248,8 +8181,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
         <v>33</v>
       </c>
       <c r="B204" t="s">
@@ -8277,8 +8210,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
+    <row r="205" spans="1:10">
+      <c r="A205" t="s">
         <v>33</v>
       </c>
       <c r="B205" t="s">
@@ -8291,7 +8224,7 @@
         <v>54.8</v>
       </c>
       <c r="F205">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G205">
         <v>53</v>
@@ -8306,8 +8239,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
+    <row r="206" spans="1:10">
+      <c r="A206" t="s">
         <v>33</v>
       </c>
       <c r="B206" t="s">
@@ -8323,7 +8256,7 @@
         <v>56.8</v>
       </c>
       <c r="G206">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H206">
         <v>16.2</v>
@@ -8335,8 +8268,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+    <row r="207" spans="1:10">
+      <c r="A207" t="s">
         <v>33</v>
       </c>
       <c r="B207" t="s">
@@ -8352,7 +8285,7 @@
         <v>65.5</v>
       </c>
       <c r="G207">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H207">
         <v>28.1</v>
@@ -8364,8 +8297,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
+    <row r="208" spans="1:10">
+      <c r="A208" t="s">
         <v>33</v>
       </c>
       <c r="B208" t="s">
@@ -8381,7 +8314,7 @@
         <v>86.7</v>
       </c>
       <c r="G208">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="H208">
         <v>16.2</v>
@@ -8393,8 +8326,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
+    <row r="209" spans="1:10">
+      <c r="A209" t="s">
         <v>33</v>
       </c>
       <c r="B209" t="s">
@@ -8422,8 +8355,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
+    <row r="210" spans="1:10">
+      <c r="A210" t="s">
         <v>33</v>
       </c>
       <c r="B210" t="s">
@@ -8451,8 +8384,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
+    <row r="211" spans="1:10">
+      <c r="A211" t="s">
         <v>33</v>
       </c>
       <c r="B211" t="s">
@@ -8480,8 +8413,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
+    <row r="212" spans="1:10">
+      <c r="A212" t="s">
         <v>33</v>
       </c>
       <c r="B212" t="s">
@@ -8497,7 +8430,7 @@
         <v>59.2</v>
       </c>
       <c r="G212">
-        <v>71.900000000000006</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="H212">
         <v>16.2</v>
@@ -8509,8 +8442,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
+    <row r="213" spans="1:10">
+      <c r="A213" t="s">
         <v>33</v>
       </c>
       <c r="B213" t="s">
@@ -8538,8 +8471,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
+    <row r="214" spans="1:10">
+      <c r="A214" t="s">
         <v>33</v>
       </c>
       <c r="B214" t="s">
@@ -8552,10 +8485,10 @@
         <v>36.1</v>
       </c>
       <c r="F214">
-        <v>72.400000000000006</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="G214">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H214">
         <v>16.2</v>
@@ -8567,8 +8500,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
+    <row r="215" spans="1:10">
+      <c r="A215" t="s">
         <v>33</v>
       </c>
       <c r="B215" t="s">
@@ -8581,7 +8514,7 @@
         <v>53.6</v>
       </c>
       <c r="F215">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G215">
         <v>57</v>
@@ -8596,8 +8529,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
+    <row r="216" spans="1:10">
+      <c r="A216" t="s">
         <v>33</v>
       </c>
       <c r="B216" t="s">
@@ -8613,7 +8546,7 @@
         <v>61.6</v>
       </c>
       <c r="G216">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H216">
         <v>16.2</v>
@@ -8625,8 +8558,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
+    <row r="217" spans="1:10">
+      <c r="A217" t="s">
         <v>33</v>
       </c>
       <c r="B217" t="s">
@@ -8654,8 +8587,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
+    <row r="218" spans="1:10">
+      <c r="A218" t="s">
         <v>33</v>
       </c>
       <c r="B218" t="s">
@@ -8683,8 +8616,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
+    <row r="219" spans="1:10">
+      <c r="A219" t="s">
         <v>33</v>
       </c>
       <c r="B219" t="s">
@@ -8697,10 +8630,10 @@
         <v>23.2</v>
       </c>
       <c r="F219">
-        <v>64.599999999999994</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G219">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H219">
         <v>22.9</v>
@@ -8712,8 +8645,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
+    <row r="220" spans="1:10">
+      <c r="A220" t="s">
         <v>33</v>
       </c>
       <c r="B220" t="s">
@@ -8741,8 +8674,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
+    <row r="221" spans="1:10">
+      <c r="A221" t="s">
         <v>33</v>
       </c>
       <c r="B221" t="s">
@@ -8752,13 +8685,13 @@
         <v>537</v>
       </c>
       <c r="E221">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="F221">
-        <v>68.099999999999994</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G221">
-        <v>67.599999999999994</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="H221">
         <v>16.2</v>
@@ -8770,8 +8703,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
+    <row r="222" spans="1:10">
+      <c r="A222" t="s">
         <v>33</v>
       </c>
       <c r="B222" t="s">
@@ -8799,8 +8732,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
+    <row r="223" spans="1:10">
+      <c r="A223" t="s">
         <v>33</v>
       </c>
       <c r="B223" t="s">
@@ -8810,13 +8743,13 @@
         <v>537</v>
       </c>
       <c r="E223">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="F223">
         <v>70.2</v>
       </c>
       <c r="G223">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="H223">
         <v>16.2</v>
@@ -8828,8 +8761,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
+    <row r="224" spans="1:10">
+      <c r="A224" t="s">
         <v>33</v>
       </c>
       <c r="B224" t="s">
@@ -8845,7 +8778,7 @@
         <v>76.8</v>
       </c>
       <c r="G224">
-        <v>87.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -8857,8 +8790,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
+    <row r="225" spans="1:10">
+      <c r="A225" t="s">
         <v>33</v>
       </c>
       <c r="B225" t="s">
@@ -8886,8 +8819,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
+    <row r="226" spans="1:10">
+      <c r="A226" t="s">
         <v>33</v>
       </c>
       <c r="B226" t="s">
@@ -8900,7 +8833,7 @@
         <v>37.5</v>
       </c>
       <c r="F226">
-        <v>64.099999999999994</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G226">
         <v>53</v>
@@ -8915,8 +8848,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
+    <row r="227" spans="1:10">
+      <c r="A227" t="s">
         <v>33</v>
       </c>
       <c r="B227" t="s">
@@ -8944,8 +8877,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
+    <row r="228" spans="1:10">
+      <c r="A228" t="s">
         <v>33</v>
       </c>
       <c r="B228" t="s">
@@ -8961,7 +8894,7 @@
         <v>66</v>
       </c>
       <c r="G228">
-        <v>79.400000000000006</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="H228">
         <v>16.2</v>
@@ -8973,8 +8906,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="s">
+    <row r="229" spans="1:10">
+      <c r="A229" t="s">
         <v>33</v>
       </c>
       <c r="B229" t="s">
@@ -8987,7 +8920,7 @@
         <v>33</v>
       </c>
       <c r="F229">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G229">
         <v>84.2</v>
@@ -9002,8 +8935,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
+    <row r="230" spans="1:10">
+      <c r="A230" t="s">
         <v>33</v>
       </c>
       <c r="B230" t="s">
@@ -9031,8 +8964,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
+    <row r="231" spans="1:10">
+      <c r="A231" t="s">
         <v>33</v>
       </c>
       <c r="B231" t="s">
@@ -9045,7 +8978,7 @@
         <v>55.2</v>
       </c>
       <c r="F231">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G231">
         <v>49.2</v>
@@ -9060,8 +8993,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
+    <row r="232" spans="1:10">
+      <c r="A232" t="s">
         <v>33</v>
       </c>
       <c r="B232" t="s">
@@ -9089,8 +9022,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
+    <row r="233" spans="1:10">
+      <c r="A233" t="s">
         <v>33</v>
       </c>
       <c r="B233" t="s">
@@ -9103,7 +9036,7 @@
         <v>45</v>
       </c>
       <c r="F233">
-        <v>89.1</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G233">
         <v>54.7</v>
@@ -9118,8 +9051,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
+    <row r="234" spans="1:10">
+      <c r="A234" t="s">
         <v>33</v>
       </c>
       <c r="B234" t="s">
@@ -9147,8 +9080,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
+    <row r="235" spans="1:10">
+      <c r="A235" t="s">
         <v>33</v>
       </c>
       <c r="B235" t="s">
@@ -9176,8 +9109,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
+    <row r="236" spans="1:10">
+      <c r="A236" t="s">
         <v>33</v>
       </c>
       <c r="B236" t="s">
@@ -9205,8 +9138,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
+    <row r="237" spans="1:10">
+      <c r="A237" t="s">
         <v>33</v>
       </c>
       <c r="B237" t="s">
@@ -9234,8 +9167,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
+    <row r="238" spans="1:10">
+      <c r="A238" t="s">
         <v>33</v>
       </c>
       <c r="B238" t="s">
@@ -9251,7 +9184,7 @@
         <v>63.4</v>
       </c>
       <c r="G238">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H238">
         <v>16.2</v>
@@ -9263,8 +9196,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
+    <row r="239" spans="1:10">
+      <c r="A239" t="s">
         <v>33</v>
       </c>
       <c r="B239" t="s">
@@ -9274,13 +9207,13 @@
         <v>559</v>
       </c>
       <c r="E239">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="F239">
         <v>64.8</v>
       </c>
       <c r="G239">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="H239">
         <v>22.9</v>
@@ -9292,8 +9225,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
+    <row r="240" spans="1:10">
+      <c r="A240" t="s">
         <v>33</v>
       </c>
       <c r="B240" t="s">
@@ -9306,7 +9239,7 @@
         <v>38.4</v>
       </c>
       <c r="F240">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G240">
         <v>63.7</v>
@@ -9321,8 +9254,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
+    <row r="241" spans="1:10">
+      <c r="A241" t="s">
         <v>33</v>
       </c>
       <c r="B241" t="s">
@@ -9350,8 +9283,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
+    <row r="242" spans="1:10">
+      <c r="A242" t="s">
         <v>33</v>
       </c>
       <c r="B242" t="s">
@@ -9379,8 +9312,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
+    <row r="243" spans="1:10">
+      <c r="A243" t="s">
         <v>33</v>
       </c>
       <c r="B243" t="s">
@@ -9408,8 +9341,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
+    <row r="244" spans="1:10">
+      <c r="A244" t="s">
         <v>33</v>
       </c>
       <c r="B244" t="s">
@@ -9422,7 +9355,7 @@
         <v>30.4</v>
       </c>
       <c r="F244">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G244">
         <v>67.8</v>
@@ -9437,8 +9370,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
+    <row r="245" spans="1:10">
+      <c r="A245" t="s">
         <v>33</v>
       </c>
       <c r="B245" t="s">
@@ -9451,7 +9384,7 @@
         <v>43.3</v>
       </c>
       <c r="F245">
-        <v>87.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G245">
         <v>42.1</v>
@@ -9466,8 +9399,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
+    <row r="246" spans="1:10">
+      <c r="A246" t="s">
         <v>33</v>
       </c>
       <c r="B246" t="s">
@@ -9495,8 +9428,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="s">
+    <row r="247" spans="1:10">
+      <c r="A247" t="s">
         <v>33</v>
       </c>
       <c r="B247" t="s">
@@ -9524,8 +9457,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
+    <row r="248" spans="1:10">
+      <c r="A248" t="s">
         <v>33</v>
       </c>
       <c r="B248" t="s">
@@ -9553,8 +9486,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
+    <row r="249" spans="1:10">
+      <c r="A249" t="s">
         <v>33</v>
       </c>
       <c r="B249" t="s">
@@ -9582,8 +9515,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A250" s="3" t="s">
+    <row r="250" spans="1:10">
+      <c r="A250" t="s">
         <v>33</v>
       </c>
       <c r="B250" t="s">
@@ -9611,8 +9544,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A251" s="3" t="s">
+    <row r="251" spans="1:10">
+      <c r="A251" t="s">
         <v>33</v>
       </c>
       <c r="B251" t="s">
@@ -9628,7 +9561,7 @@
         <v>63</v>
       </c>
       <c r="G251">
-        <v>67.900000000000006</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H251">
         <v>16.2</v>
@@ -9640,8 +9573,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
+    <row r="252" spans="1:10">
+      <c r="A252" t="s">
         <v>33</v>
       </c>
       <c r="B252" t="s">
@@ -9651,7 +9584,7 @@
         <v>571</v>
       </c>
       <c r="E252">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F252">
         <v>62</v>
@@ -9669,8 +9602,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A253" s="3" t="s">
+    <row r="253" spans="1:10">
+      <c r="A253" t="s">
         <v>33</v>
       </c>
       <c r="B253" t="s">
@@ -9698,8 +9631,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
+    <row r="254" spans="1:10">
+      <c r="A254" t="s">
         <v>33</v>
       </c>
       <c r="B254" t="s">
@@ -9727,8 +9660,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
+    <row r="255" spans="1:10">
+      <c r="A255" t="s">
         <v>33</v>
       </c>
       <c r="B255" t="s">
@@ -9741,7 +9674,7 @@
         <v>36.4</v>
       </c>
       <c r="F255">
-        <v>71.599999999999994</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G255">
         <v>82</v>
@@ -9756,8 +9689,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A256" s="3" t="s">
+    <row r="256" spans="1:10">
+      <c r="A256" t="s">
         <v>33</v>
       </c>
       <c r="B256" t="s">
@@ -9773,7 +9706,7 @@
         <v>67.2</v>
       </c>
       <c r="G256">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H256">
         <v>22.9</v>
@@ -9785,8 +9718,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A257" s="3" t="s">
+    <row r="257" spans="1:10">
+      <c r="A257" t="s">
         <v>33</v>
       </c>
       <c r="B257" t="s">
@@ -9796,7 +9729,7 @@
         <v>546</v>
       </c>
       <c r="E257">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="F257">
         <v>93.3</v>
@@ -9814,8 +9747,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A258" s="3" t="s">
+    <row r="258" spans="1:10">
+      <c r="A258" t="s">
         <v>33</v>
       </c>
       <c r="B258" t="s">
@@ -9828,10 +9761,10 @@
         <v>44.6</v>
       </c>
       <c r="F258">
-        <v>86.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="G258">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -9843,8 +9776,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
+    <row r="259" spans="1:10">
+      <c r="A259" t="s">
         <v>33</v>
       </c>
       <c r="B259" t="s">
@@ -9854,7 +9787,7 @@
         <v>553</v>
       </c>
       <c r="E259">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="F259">
         <v>64.5</v>
@@ -9872,8 +9805,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
+    <row r="260" spans="1:10">
+      <c r="A260" t="s">
         <v>33</v>
       </c>
       <c r="B260" t="s">
@@ -9889,7 +9822,7 @@
         <v>68.3</v>
       </c>
       <c r="G260">
-        <v>78.900000000000006</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="H260">
         <v>22.9</v>
@@ -9901,8 +9834,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
+    <row r="261" spans="1:10">
+      <c r="A261" t="s">
         <v>33</v>
       </c>
       <c r="B261" t="s">
@@ -9912,7 +9845,7 @@
         <v>537</v>
       </c>
       <c r="E261">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F261">
         <v>67</v>
@@ -9930,8 +9863,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
+    <row r="262" spans="1:10">
+      <c r="A262" t="s">
         <v>33</v>
       </c>
       <c r="B262" t="s">
@@ -9959,8 +9892,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A263" s="3" t="s">
+    <row r="263" spans="1:10">
+      <c r="A263" t="s">
         <v>33</v>
       </c>
       <c r="B263" t="s">
@@ -9988,8 +9921,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A264" s="3" t="s">
+    <row r="264" spans="1:10">
+      <c r="A264" t="s">
         <v>33</v>
       </c>
       <c r="B264" t="s">
@@ -10017,8 +9950,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A265" s="3" t="s">
+    <row r="265" spans="1:10">
+      <c r="A265" t="s">
         <v>33</v>
       </c>
       <c r="B265" t="s">
@@ -10046,8 +9979,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A266" s="3" t="s">
+    <row r="266" spans="1:10">
+      <c r="A266" t="s">
         <v>33</v>
       </c>
       <c r="B266" t="s">
@@ -10075,8 +10008,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
+    <row r="267" spans="1:10">
+      <c r="A267" t="s">
         <v>33</v>
       </c>
       <c r="B267" t="s">
@@ -10089,7 +10022,7 @@
         <v>32.5</v>
       </c>
       <c r="F267">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G267">
         <v>66.2</v>
@@ -10104,8 +10037,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A268" s="3" t="s">
+    <row r="268" spans="1:10">
+      <c r="A268" t="s">
         <v>33</v>
       </c>
       <c r="B268" t="s">
@@ -10133,8 +10066,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A269" s="3" t="s">
+    <row r="269" spans="1:10">
+      <c r="A269" t="s">
         <v>33</v>
       </c>
       <c r="B269" t="s">
@@ -10147,10 +10080,10 @@
         <v>50.1</v>
       </c>
       <c r="F269">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G269">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -10162,8 +10095,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A270" s="3" t="s">
+    <row r="270" spans="1:10">
+      <c r="A270" t="s">
         <v>33</v>
       </c>
       <c r="B270" t="s">
@@ -10176,10 +10109,10 @@
         <v>35.9</v>
       </c>
       <c r="F270">
-        <v>72.099999999999994</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="G270">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="H270">
         <v>16.2</v>
@@ -10191,8 +10124,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A271" s="3" t="s">
+    <row r="271" spans="1:10">
+      <c r="A271" t="s">
         <v>33</v>
       </c>
       <c r="B271" t="s">
@@ -10220,8 +10153,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A272" s="3" t="s">
+    <row r="272" spans="1:10">
+      <c r="A272" t="s">
         <v>33</v>
       </c>
       <c r="B272" t="s">
@@ -10249,8 +10182,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A273" s="3" t="s">
+    <row r="273" spans="1:10">
+      <c r="A273" t="s">
         <v>33</v>
       </c>
       <c r="B273" t="s">
@@ -10278,8 +10211,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A274" s="3" t="s">
+    <row r="274" spans="1:10">
+      <c r="A274" t="s">
         <v>33</v>
       </c>
       <c r="B274" t="s">
@@ -10307,8 +10240,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A275" s="3" t="s">
+    <row r="275" spans="1:10">
+      <c r="A275" t="s">
         <v>33</v>
       </c>
       <c r="B275" t="s">
@@ -10321,7 +10254,7 @@
         <v>45</v>
       </c>
       <c r="F275">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G275">
         <v>74.3</v>
@@ -10336,8 +10269,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
+    <row r="276" spans="1:10">
+      <c r="A276" t="s">
         <v>33</v>
       </c>
       <c r="B276" t="s">
@@ -10350,10 +10283,10 @@
         <v>50.2</v>
       </c>
       <c r="F276">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G276">
-        <v>72.400000000000006</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -10365,8 +10298,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A277" s="3" t="s">
+    <row r="277" spans="1:10">
+      <c r="A277" t="s">
         <v>33</v>
       </c>
       <c r="B277" t="s">
@@ -10376,13 +10309,13 @@
         <v>540</v>
       </c>
       <c r="E277">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="F277">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G277">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H277">
         <v>16.2</v>
@@ -10394,8 +10327,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
+    <row r="278" spans="1:10">
+      <c r="A278" t="s">
         <v>33</v>
       </c>
       <c r="B278" t="s">
@@ -10423,8 +10356,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A279" s="3" t="s">
+    <row r="279" spans="1:10">
+      <c r="A279" t="s">
         <v>33</v>
       </c>
       <c r="B279" t="s">
@@ -10452,8 +10385,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A280" s="3" t="s">
+    <row r="280" spans="1:10">
+      <c r="A280" t="s">
         <v>33</v>
       </c>
       <c r="B280" t="s">
@@ -10481,8 +10414,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A281" s="3" t="s">
+    <row r="281" spans="1:10">
+      <c r="A281" t="s">
         <v>33</v>
       </c>
       <c r="B281" t="s">
@@ -10498,7 +10431,7 @@
         <v>62.7</v>
       </c>
       <c r="G281">
-        <v>83.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="H281">
         <v>16.2</v>
@@ -10510,8 +10443,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A282" s="3" t="s">
+    <row r="282" spans="1:10">
+      <c r="A282" t="s">
         <v>33</v>
       </c>
       <c r="B282" t="s">
@@ -10524,7 +10457,7 @@
         <v>43.1</v>
       </c>
       <c r="F282">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G282">
         <v>63</v>
@@ -10539,8 +10472,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A283" s="3" t="s">
+    <row r="283" spans="1:10">
+      <c r="A283" t="s">
         <v>33</v>
       </c>
       <c r="B283" t="s">
@@ -10556,7 +10489,7 @@
         <v>63</v>
       </c>
       <c r="G283">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H283">
         <v>16.2</v>
@@ -10568,8 +10501,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A284" s="3" t="s">
+    <row r="284" spans="1:10">
+      <c r="A284" t="s">
         <v>33</v>
       </c>
       <c r="B284" t="s">
@@ -10597,8 +10530,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A285" s="3" t="s">
+    <row r="285" spans="1:10">
+      <c r="A285" t="s">
         <v>33</v>
       </c>
       <c r="B285" t="s">
@@ -10611,7 +10544,7 @@
         <v>27.8</v>
       </c>
       <c r="F285">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G285">
         <v>75.7</v>
@@ -10626,8 +10559,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A286" s="3" t="s">
+    <row r="286" spans="1:10">
+      <c r="A286" t="s">
         <v>33</v>
       </c>
       <c r="B286" t="s">
@@ -10643,7 +10576,7 @@
         <v>100</v>
       </c>
       <c r="G286">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -10655,8 +10588,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A287" s="3" t="s">
+    <row r="287" spans="1:10">
+      <c r="A287" t="s">
         <v>33</v>
       </c>
       <c r="B287" t="s">
@@ -10684,8 +10617,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A288" s="3" t="s">
+    <row r="288" spans="1:10">
+      <c r="A288" t="s">
         <v>33</v>
       </c>
       <c r="B288" t="s">
@@ -10698,10 +10631,10 @@
         <v>32.4</v>
       </c>
       <c r="F288">
-        <v>99.6</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G288">
-        <v>72.400000000000006</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -10713,8 +10646,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A289" s="3" t="s">
+    <row r="289" spans="1:10">
+      <c r="A289" t="s">
         <v>33</v>
       </c>
       <c r="B289" t="s">
@@ -10742,8 +10675,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A290" s="3" t="s">
+    <row r="290" spans="1:10">
+      <c r="A290" t="s">
         <v>33</v>
       </c>
       <c r="B290" t="s">
@@ -10759,7 +10692,7 @@
         <v>63.9</v>
       </c>
       <c r="G290">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H290">
         <v>0</v>
@@ -10771,8 +10704,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A291" s="3" t="s">
+    <row r="291" spans="1:10">
+      <c r="A291" t="s">
         <v>33</v>
       </c>
       <c r="B291" t="s">
@@ -10800,8 +10733,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A292" s="3" t="s">
+    <row r="292" spans="1:10">
+      <c r="A292" t="s">
         <v>33</v>
       </c>
       <c r="B292" t="s">
@@ -10817,7 +10750,7 @@
         <v>62.9</v>
       </c>
       <c r="G292">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="H292">
         <v>16.2</v>
@@ -10829,8 +10762,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
+    <row r="293" spans="1:10">
+      <c r="A293" t="s">
         <v>33</v>
       </c>
       <c r="B293" t="s">
@@ -10846,7 +10779,7 @@
         <v>71.5</v>
       </c>
       <c r="G293">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H293">
         <v>16.2</v>
@@ -10858,8 +10791,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A294" s="3" t="s">
+    <row r="294" spans="1:10">
+      <c r="A294" t="s">
         <v>33</v>
       </c>
       <c r="B294" t="s">
@@ -10887,8 +10820,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A295" s="3" t="s">
+    <row r="295" spans="1:10">
+      <c r="A295" t="s">
         <v>33</v>
       </c>
       <c r="B295" t="s">
@@ -10901,7 +10834,7 @@
         <v>31.7</v>
       </c>
       <c r="F295">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="G295">
         <v>71.8</v>
@@ -10916,8 +10849,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A296" s="3" t="s">
+    <row r="296" spans="1:10">
+      <c r="A296" t="s">
         <v>33</v>
       </c>
       <c r="B296" t="s">
@@ -10927,13 +10860,13 @@
         <v>543</v>
       </c>
       <c r="E296">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="F296">
-        <v>95.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G296">
-        <v>92.9</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -10945,8 +10878,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A297" s="3" t="s">
+    <row r="297" spans="1:10">
+      <c r="A297" t="s">
         <v>33</v>
       </c>
       <c r="B297" t="s">
@@ -10974,8 +10907,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A298" s="3" t="s">
+    <row r="298" spans="1:10">
+      <c r="A298" t="s">
         <v>33</v>
       </c>
       <c r="B298" t="s">
@@ -10991,7 +10924,7 @@
         <v>61.5</v>
       </c>
       <c r="G298">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H298">
         <v>28.1</v>
@@ -11003,8 +10936,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A299" s="3" t="s">
+    <row r="299" spans="1:10">
+      <c r="A299" t="s">
         <v>33</v>
       </c>
       <c r="B299" t="s">
@@ -11032,8 +10965,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A300" s="3" t="s">
+    <row r="300" spans="1:10">
+      <c r="A300" t="s">
         <v>33</v>
       </c>
       <c r="B300" t="s">
@@ -11046,7 +10979,7 @@
         <v>57.5</v>
       </c>
       <c r="F300">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G300">
         <v>55.5</v>
@@ -11061,8 +10994,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A301" s="3" t="s">
+    <row r="301" spans="1:10">
+      <c r="A301" t="s">
         <v>33</v>
       </c>
       <c r="B301" t="s">
@@ -11090,8 +11023,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A302" s="3" t="s">
+    <row r="302" spans="1:10">
+      <c r="A302" t="s">
         <v>33</v>
       </c>
       <c r="B302" t="s">
@@ -11104,7 +11037,7 @@
         <v>48.2</v>
       </c>
       <c r="F302">
-        <v>89.4</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G302">
         <v>62.2</v>
@@ -11119,8 +11052,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A303" s="3" t="s">
+    <row r="303" spans="1:10">
+      <c r="A303" t="s">
         <v>34</v>
       </c>
       <c r="B303" t="s">
@@ -11148,8 +11081,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A304" s="3" t="s">
+    <row r="304" spans="1:10">
+      <c r="A304" t="s">
         <v>34</v>
       </c>
       <c r="B304" t="s">
@@ -11159,7 +11092,7 @@
         <v>556</v>
       </c>
       <c r="E304">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="F304">
         <v>75.8</v>
@@ -11177,8 +11110,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
+    <row r="305" spans="1:10">
+      <c r="A305" t="s">
         <v>34</v>
       </c>
       <c r="B305" t="s">
@@ -11188,7 +11121,7 @@
         <v>546</v>
       </c>
       <c r="E305">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="F305">
         <v>83.5</v>
@@ -11206,8 +11139,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
+    <row r="306" spans="1:10">
+      <c r="A306" t="s">
         <v>34</v>
       </c>
       <c r="B306" t="s">
@@ -11217,13 +11150,13 @@
         <v>537</v>
       </c>
       <c r="E306">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F306">
         <v>61.5</v>
       </c>
       <c r="G306">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H306">
         <v>16.2</v>
@@ -11235,8 +11168,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A307" s="3" t="s">
+    <row r="307" spans="1:10">
+      <c r="A307" t="s">
         <v>34</v>
       </c>
       <c r="B307" t="s">
@@ -11264,8 +11197,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A308" s="3" t="s">
+    <row r="308" spans="1:10">
+      <c r="A308" t="s">
         <v>34</v>
       </c>
       <c r="B308" t="s">
@@ -11293,8 +11226,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A309" s="3" t="s">
+    <row r="309" spans="1:10">
+      <c r="A309" t="s">
         <v>34</v>
       </c>
       <c r="B309" t="s">
@@ -11322,8 +11255,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A310" s="3" t="s">
+    <row r="310" spans="1:10">
+      <c r="A310" t="s">
         <v>34</v>
       </c>
       <c r="B310" t="s">
@@ -11351,8 +11284,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A311" s="3" t="s">
+    <row r="311" spans="1:10">
+      <c r="A311" t="s">
         <v>34</v>
       </c>
       <c r="B311" t="s">
@@ -11365,10 +11298,10 @@
         <v>27.8</v>
       </c>
       <c r="F311">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G311">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H311">
         <v>16.2</v>
@@ -11380,8 +11313,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
+    <row r="312" spans="1:10">
+      <c r="A312" t="s">
         <v>34</v>
       </c>
       <c r="B312" t="s">
@@ -11409,8 +11342,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A313" s="3" t="s">
+    <row r="313" spans="1:10">
+      <c r="A313" t="s">
         <v>34</v>
       </c>
       <c r="B313" t="s">
@@ -11438,8 +11371,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A314" s="3" t="s">
+    <row r="314" spans="1:10">
+      <c r="A314" t="s">
         <v>34</v>
       </c>
       <c r="B314" t="s">
@@ -11452,7 +11385,7 @@
         <v>39.5</v>
       </c>
       <c r="F314">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G314">
         <v>58.6</v>
@@ -11467,8 +11400,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A315" s="3" t="s">
+    <row r="315" spans="1:10">
+      <c r="A315" t="s">
         <v>34</v>
       </c>
       <c r="B315" t="s">
@@ -11496,8 +11429,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A316" s="3" t="s">
+    <row r="316" spans="1:10">
+      <c r="A316" t="s">
         <v>34</v>
       </c>
       <c r="B316" t="s">
@@ -11525,8 +11458,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A317" s="3" t="s">
+    <row r="317" spans="1:10">
+      <c r="A317" t="s">
         <v>34</v>
       </c>
       <c r="B317" t="s">
@@ -11542,7 +11475,7 @@
         <v>57.8</v>
       </c>
       <c r="G317">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H317">
         <v>22.9</v>
@@ -11554,8 +11487,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A318" s="3" t="s">
+    <row r="318" spans="1:10">
+      <c r="A318" t="s">
         <v>34</v>
       </c>
       <c r="B318" t="s">
@@ -11571,7 +11504,7 @@
         <v>64.8</v>
       </c>
       <c r="G318">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="H318">
         <v>16.2</v>
@@ -11583,8 +11516,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A319" s="3" t="s">
+    <row r="319" spans="1:10">
+      <c r="A319" t="s">
         <v>34</v>
       </c>
       <c r="B319" t="s">
@@ -11612,8 +11545,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A320" s="3" t="s">
+    <row r="320" spans="1:10">
+      <c r="A320" t="s">
         <v>34</v>
       </c>
       <c r="B320" t="s">
@@ -11629,7 +11562,7 @@
         <v>55.9</v>
       </c>
       <c r="G320">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H320">
         <v>16.2</v>
@@ -11641,8 +11574,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A321" s="3" t="s">
+    <row r="321" spans="1:10">
+      <c r="A321" t="s">
         <v>34</v>
       </c>
       <c r="B321" t="s">
@@ -11658,7 +11591,7 @@
         <v>100</v>
       </c>
       <c r="G321">
-        <v>66.599999999999994</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -11670,8 +11603,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A322" s="3" t="s">
+    <row r="322" spans="1:10">
+      <c r="A322" t="s">
         <v>34</v>
       </c>
       <c r="B322" t="s">
@@ -11699,8 +11632,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A323" s="3" t="s">
+    <row r="323" spans="1:10">
+      <c r="A323" t="s">
         <v>34</v>
       </c>
       <c r="B323" t="s">
@@ -11713,7 +11646,7 @@
         <v>41.2</v>
       </c>
       <c r="F323">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G323">
         <v>46.6</v>
@@ -11728,8 +11661,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A324" s="3" t="s">
+    <row r="324" spans="1:10">
+      <c r="A324" t="s">
         <v>34</v>
       </c>
       <c r="B324" t="s">
@@ -11757,8 +11690,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A325" s="3" t="s">
+    <row r="325" spans="1:10">
+      <c r="A325" t="s">
         <v>34</v>
       </c>
       <c r="B325" t="s">
@@ -11786,8 +11719,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A326" s="3" t="s">
+    <row r="326" spans="1:10">
+      <c r="A326" t="s">
         <v>34</v>
       </c>
       <c r="B326" t="s">
@@ -11815,8 +11748,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A327" s="3" t="s">
+    <row r="327" spans="1:10">
+      <c r="A327" t="s">
         <v>34</v>
       </c>
       <c r="B327" t="s">
@@ -11829,7 +11762,7 @@
         <v>40.1</v>
       </c>
       <c r="F327">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G327">
         <v>54.4</v>
@@ -11844,8 +11777,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A328" s="3" t="s">
+    <row r="328" spans="1:10">
+      <c r="A328" t="s">
         <v>34</v>
       </c>
       <c r="B328" t="s">
@@ -11858,7 +11791,7 @@
         <v>52.7</v>
       </c>
       <c r="F328">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G328">
         <v>43.3</v>
@@ -11873,8 +11806,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A329" s="3" t="s">
+    <row r="329" spans="1:10">
+      <c r="A329" t="s">
         <v>34</v>
       </c>
       <c r="B329" t="s">
@@ -11890,7 +11823,7 @@
         <v>57.7</v>
       </c>
       <c r="G329">
-        <v>69.599999999999994</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -11902,8 +11835,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A330" s="3" t="s">
+    <row r="330" spans="1:10">
+      <c r="A330" t="s">
         <v>34</v>
       </c>
       <c r="B330" t="s">
@@ -11931,8 +11864,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A331" s="3" t="s">
+    <row r="331" spans="1:10">
+      <c r="A331" t="s">
         <v>34</v>
       </c>
       <c r="B331" t="s">
@@ -11942,10 +11875,10 @@
         <v>546</v>
       </c>
       <c r="E331">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="F331">
-        <v>96.9</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G331">
         <v>56.2</v>
@@ -11960,8 +11893,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A332" s="3" t="s">
+    <row r="332" spans="1:10">
+      <c r="A332" t="s">
         <v>34</v>
       </c>
       <c r="B332" t="s">
@@ -11977,7 +11910,7 @@
         <v>86.3</v>
       </c>
       <c r="G332">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -11989,8 +11922,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A333" s="3" t="s">
+    <row r="333" spans="1:10">
+      <c r="A333" t="s">
         <v>34</v>
       </c>
       <c r="B333" t="s">
@@ -12018,8 +11951,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A334" s="3" t="s">
+    <row r="334" spans="1:10">
+      <c r="A334" t="s">
         <v>34</v>
       </c>
       <c r="B334" t="s">
@@ -12029,10 +11962,10 @@
         <v>546</v>
       </c>
       <c r="E334">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="F334">
-        <v>83.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="G334">
         <v>54</v>
@@ -12047,8 +11980,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A335" s="3" t="s">
+    <row r="335" spans="1:10">
+      <c r="A335" t="s">
         <v>34</v>
       </c>
       <c r="B335" t="s">
@@ -12076,8 +12009,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A336" s="3" t="s">
+    <row r="336" spans="1:10">
+      <c r="A336" t="s">
         <v>34</v>
       </c>
       <c r="B336" t="s">
@@ -12105,8 +12038,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A337" s="3" t="s">
+    <row r="337" spans="1:10">
+      <c r="A337" t="s">
         <v>34</v>
       </c>
       <c r="B337" t="s">
@@ -12134,8 +12067,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A338" s="3" t="s">
+    <row r="338" spans="1:10">
+      <c r="A338" t="s">
         <v>34</v>
       </c>
       <c r="B338" t="s">
@@ -12145,13 +12078,13 @@
         <v>574</v>
       </c>
       <c r="E338">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="F338">
         <v>77.5</v>
       </c>
       <c r="G338">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H338">
         <v>0</v>
@@ -12163,8 +12096,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A339" s="3" t="s">
+    <row r="339" spans="1:10">
+      <c r="A339" t="s">
         <v>34</v>
       </c>
       <c r="B339" t="s">
@@ -12192,8 +12125,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A340" s="3" t="s">
+    <row r="340" spans="1:10">
+      <c r="A340" t="s">
         <v>34</v>
       </c>
       <c r="B340" t="s">
@@ -12221,8 +12154,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A341" s="3" t="s">
+    <row r="341" spans="1:10">
+      <c r="A341" t="s">
         <v>34</v>
       </c>
       <c r="B341" t="s">
@@ -12232,7 +12165,7 @@
         <v>547</v>
       </c>
       <c r="E341">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="F341">
         <v>82.3</v>
@@ -12250,8 +12183,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A342" s="3" t="s">
+    <row r="342" spans="1:10">
+      <c r="A342" t="s">
         <v>34</v>
       </c>
       <c r="B342" t="s">
@@ -12279,8 +12212,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A343" s="3" t="s">
+    <row r="343" spans="1:10">
+      <c r="A343" t="s">
         <v>34</v>
       </c>
       <c r="B343" t="s">
@@ -12290,13 +12223,13 @@
         <v>567</v>
       </c>
       <c r="E343">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="F343">
         <v>71.2</v>
       </c>
       <c r="G343">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="H343">
         <v>22.9</v>
@@ -12308,8 +12241,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A344" s="3" t="s">
+    <row r="344" spans="1:10">
+      <c r="A344" t="s">
         <v>34</v>
       </c>
       <c r="B344" t="s">
@@ -12319,10 +12252,10 @@
         <v>546</v>
       </c>
       <c r="E344">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="F344">
-        <v>92.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G344">
         <v>61.4</v>
@@ -12337,8 +12270,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A345" s="3" t="s">
+    <row r="345" spans="1:10">
+      <c r="A345" t="s">
         <v>34</v>
       </c>
       <c r="B345" t="s">
@@ -12354,7 +12287,7 @@
         <v>63.6</v>
       </c>
       <c r="G345">
-        <v>70.599999999999994</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -12366,8 +12299,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A346" s="3" t="s">
+    <row r="346" spans="1:10">
+      <c r="A346" t="s">
         <v>34</v>
       </c>
       <c r="B346" t="s">
@@ -12377,10 +12310,10 @@
         <v>546</v>
       </c>
       <c r="E346">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="F346">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G346">
         <v>50.2</v>
@@ -12395,8 +12328,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A347" s="3" t="s">
+    <row r="347" spans="1:10">
+      <c r="A347" t="s">
         <v>34</v>
       </c>
       <c r="B347" t="s">
@@ -12412,7 +12345,7 @@
         <v>68.7</v>
       </c>
       <c r="G347">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -12424,8 +12357,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A348" s="3" t="s">
+    <row r="348" spans="1:10">
+      <c r="A348" t="s">
         <v>34</v>
       </c>
       <c r="B348" t="s">
@@ -12441,7 +12374,7 @@
         <v>72.3</v>
       </c>
       <c r="G348">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -12453,8 +12386,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A349" s="3" t="s">
+    <row r="349" spans="1:10">
+      <c r="A349" t="s">
         <v>34</v>
       </c>
       <c r="B349" t="s">
@@ -12467,10 +12400,10 @@
         <v>27.4</v>
       </c>
       <c r="F349">
-        <v>91.9</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G349">
-        <v>87.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -12482,8 +12415,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A350" s="3" t="s">
+    <row r="350" spans="1:10">
+      <c r="A350" t="s">
         <v>34</v>
       </c>
       <c r="B350" t="s">
@@ -12496,10 +12429,10 @@
         <v>24.6</v>
       </c>
       <c r="F350">
-        <v>68.900000000000006</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G350">
-        <v>73.900000000000006</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="H350">
         <v>16.2</v>
@@ -12511,8 +12444,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A351" s="3" t="s">
+    <row r="351" spans="1:10">
+      <c r="A351" t="s">
         <v>34</v>
       </c>
       <c r="B351" t="s">
@@ -12540,8 +12473,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A352" s="3" t="s">
+    <row r="352" spans="1:10">
+      <c r="A352" t="s">
         <v>34</v>
       </c>
       <c r="B352" t="s">
@@ -12569,8 +12502,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A353" s="3" t="s">
+    <row r="353" spans="1:10">
+      <c r="A353" t="s">
         <v>34</v>
       </c>
       <c r="B353" t="s">
@@ -12583,7 +12516,7 @@
         <v>24.6</v>
       </c>
       <c r="F353">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G353">
         <v>79.5</v>
@@ -12598,8 +12531,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A354" s="3" t="s">
+    <row r="354" spans="1:10">
+      <c r="A354" t="s">
         <v>34</v>
       </c>
       <c r="B354" t="s">
@@ -12627,8 +12560,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A355" s="3" t="s">
+    <row r="355" spans="1:10">
+      <c r="A355" t="s">
         <v>34</v>
       </c>
       <c r="B355" t="s">
@@ -12641,7 +12574,7 @@
         <v>25.6</v>
       </c>
       <c r="F355">
-        <v>71.900000000000006</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G355">
         <v>70.3</v>
@@ -12656,8 +12589,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A356" s="3" t="s">
+    <row r="356" spans="1:10">
+      <c r="A356" t="s">
         <v>34</v>
       </c>
       <c r="B356" t="s">
@@ -12685,8 +12618,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A357" s="3" t="s">
+    <row r="357" spans="1:10">
+      <c r="A357" t="s">
         <v>34</v>
       </c>
       <c r="B357" t="s">
@@ -12699,10 +12632,10 @@
         <v>27.6</v>
       </c>
       <c r="F357">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G357">
-        <v>64.599999999999994</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="H357">
         <v>16.2</v>
@@ -12714,8 +12647,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A358" s="3" t="s">
+    <row r="358" spans="1:10">
+      <c r="A358" t="s">
         <v>34</v>
       </c>
       <c r="B358" t="s">
@@ -12743,8 +12676,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A359" s="3" t="s">
+    <row r="359" spans="1:10">
+      <c r="A359" t="s">
         <v>34</v>
       </c>
       <c r="B359" t="s">
@@ -12760,7 +12693,7 @@
         <v>79</v>
       </c>
       <c r="G359">
-        <v>83.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -12772,8 +12705,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A360" s="3" t="s">
+    <row r="360" spans="1:10">
+      <c r="A360" t="s">
         <v>34</v>
       </c>
       <c r="B360" t="s">
@@ -12789,7 +12722,7 @@
         <v>98.3</v>
       </c>
       <c r="G360">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H360">
         <v>0</v>
@@ -12801,8 +12734,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A361" s="3" t="s">
+    <row r="361" spans="1:10">
+      <c r="A361" t="s">
         <v>34</v>
       </c>
       <c r="B361" t="s">
@@ -12815,7 +12748,7 @@
         <v>28.2</v>
       </c>
       <c r="F361">
-        <v>67.900000000000006</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="G361">
         <v>55.2</v>
@@ -12830,8 +12763,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A362" s="3" t="s">
+    <row r="362" spans="1:10">
+      <c r="A362" t="s">
         <v>34</v>
       </c>
       <c r="B362" t="s">
@@ -12847,7 +12780,7 @@
         <v>63.1</v>
       </c>
       <c r="G362">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H362">
         <v>16.2</v>
@@ -12859,8 +12792,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A363" s="3" t="s">
+    <row r="363" spans="1:10">
+      <c r="A363" t="s">
         <v>34</v>
       </c>
       <c r="B363" t="s">
@@ -12876,7 +12809,7 @@
         <v>57.3</v>
       </c>
       <c r="G363">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H363">
         <v>22.9</v>
@@ -12888,8 +12821,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A364" s="3" t="s">
+    <row r="364" spans="1:10">
+      <c r="A364" t="s">
         <v>34</v>
       </c>
       <c r="B364" t="s">
@@ -12899,7 +12832,7 @@
         <v>547</v>
       </c>
       <c r="E364">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="F364">
         <v>84.8</v>
@@ -12917,8 +12850,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A365" s="3" t="s">
+    <row r="365" spans="1:10">
+      <c r="A365" t="s">
         <v>34</v>
       </c>
       <c r="B365" t="s">
@@ -12934,7 +12867,7 @@
         <v>61.5</v>
       </c>
       <c r="G365">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H365">
         <v>16.2</v>
@@ -12946,8 +12879,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A366" s="3" t="s">
+    <row r="366" spans="1:10">
+      <c r="A366" t="s">
         <v>34</v>
       </c>
       <c r="B366" t="s">
@@ -12975,8 +12908,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A367" s="3" t="s">
+    <row r="367" spans="1:10">
+      <c r="A367" t="s">
         <v>34</v>
       </c>
       <c r="B367" t="s">
@@ -12989,7 +12922,7 @@
         <v>33.4</v>
       </c>
       <c r="F367">
-        <v>89.4</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G367">
         <v>67.2</v>
@@ -13004,8 +12937,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A368" s="3" t="s">
+    <row r="368" spans="1:10">
+      <c r="A368" t="s">
         <v>34</v>
       </c>
       <c r="B368" t="s">
@@ -13015,10 +12948,10 @@
         <v>547</v>
       </c>
       <c r="E368">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F368">
-        <v>83.4</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G368">
         <v>72.2</v>
@@ -13033,8 +12966,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A369" s="3" t="s">
+    <row r="369" spans="1:10">
+      <c r="A369" t="s">
         <v>34</v>
       </c>
       <c r="B369" t="s">
@@ -13050,7 +12983,7 @@
         <v>70.3</v>
       </c>
       <c r="G369">
-        <v>86.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="H369">
         <v>0</v>
@@ -13062,8 +12995,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A370" s="3" t="s">
+    <row r="370" spans="1:10">
+      <c r="A370" t="s">
         <v>34</v>
       </c>
       <c r="B370" t="s">
@@ -13079,7 +13012,7 @@
         <v>60.9</v>
       </c>
       <c r="G370">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H370">
         <v>16.2</v>
@@ -13091,8 +13024,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A371" s="3" t="s">
+    <row r="371" spans="1:10">
+      <c r="A371" t="s">
         <v>34</v>
       </c>
       <c r="B371" t="s">
@@ -13120,8 +13053,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A372" s="3" t="s">
+    <row r="372" spans="1:10">
+      <c r="A372" t="s">
         <v>34</v>
       </c>
       <c r="B372" t="s">
@@ -13149,8 +13082,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A373" s="3" t="s">
+    <row r="373" spans="1:10">
+      <c r="A373" t="s">
         <v>34</v>
       </c>
       <c r="B373" t="s">
@@ -13178,8 +13111,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A374" s="3" t="s">
+    <row r="374" spans="1:10">
+      <c r="A374" t="s">
         <v>34</v>
       </c>
       <c r="B374" t="s">
@@ -13207,8 +13140,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A375" s="3" t="s">
+    <row r="375" spans="1:10">
+      <c r="A375" t="s">
         <v>34</v>
       </c>
       <c r="B375" t="s">
@@ -13236,8 +13169,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A376" s="3" t="s">
+    <row r="376" spans="1:10">
+      <c r="A376" t="s">
         <v>34</v>
       </c>
       <c r="B376" t="s">
@@ -13265,8 +13198,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A377" s="3" t="s">
+    <row r="377" spans="1:10">
+      <c r="A377" t="s">
         <v>34</v>
       </c>
       <c r="B377" t="s">
@@ -13294,8 +13227,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A378" s="3" t="s">
+    <row r="378" spans="1:10">
+      <c r="A378" t="s">
         <v>34</v>
       </c>
       <c r="B378" t="s">
@@ -13323,8 +13256,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A379" s="3" t="s">
+    <row r="379" spans="1:10">
+      <c r="A379" t="s">
         <v>34</v>
       </c>
       <c r="B379" t="s">
@@ -13352,8 +13285,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A380" s="3" t="s">
+    <row r="380" spans="1:10">
+      <c r="A380" t="s">
         <v>34</v>
       </c>
       <c r="B380" t="s">
@@ -13381,8 +13314,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A381" s="3" t="s">
+    <row r="381" spans="1:10">
+      <c r="A381" t="s">
         <v>34</v>
       </c>
       <c r="B381" t="s">
@@ -13398,7 +13331,7 @@
         <v>65</v>
       </c>
       <c r="G381">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H381">
         <v>22.9</v>
@@ -13410,8 +13343,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A382" s="3" t="s">
+    <row r="382" spans="1:10">
+      <c r="A382" t="s">
         <v>34</v>
       </c>
       <c r="B382" t="s">
@@ -13439,8 +13372,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A383" s="3" t="s">
+    <row r="383" spans="1:10">
+      <c r="A383" t="s">
         <v>34</v>
       </c>
       <c r="B383" t="s">
@@ -13468,8 +13401,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A384" s="3" t="s">
+    <row r="384" spans="1:10">
+      <c r="A384" t="s">
         <v>34</v>
       </c>
       <c r="B384" t="s">
@@ -13497,8 +13430,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A385" s="3" t="s">
+    <row r="385" spans="1:10">
+      <c r="A385" t="s">
         <v>34</v>
       </c>
       <c r="B385" t="s">
@@ -13526,8 +13459,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A386" s="3" t="s">
+    <row r="386" spans="1:10">
+      <c r="A386" t="s">
         <v>34</v>
       </c>
       <c r="B386" t="s">
@@ -13555,8 +13488,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A387" s="3" t="s">
+    <row r="387" spans="1:10">
+      <c r="A387" t="s">
         <v>34</v>
       </c>
       <c r="B387" t="s">
@@ -13569,7 +13502,7 @@
         <v>25.8</v>
       </c>
       <c r="F387">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G387">
         <v>75.2</v>
@@ -13584,8 +13517,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A388" s="3" t="s">
+    <row r="388" spans="1:10">
+      <c r="A388" t="s">
         <v>34</v>
       </c>
       <c r="B388" t="s">
@@ -13595,13 +13528,13 @@
         <v>537</v>
       </c>
       <c r="E388">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="F388">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G388">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H388">
         <v>0</v>
@@ -13613,8 +13546,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A389" s="3" t="s">
+    <row r="389" spans="1:10">
+      <c r="A389" t="s">
         <v>34</v>
       </c>
       <c r="B389" t="s">
@@ -13642,8 +13575,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A390" s="3" t="s">
+    <row r="390" spans="1:10">
+      <c r="A390" t="s">
         <v>34</v>
       </c>
       <c r="B390" t="s">
@@ -13659,7 +13592,7 @@
         <v>75</v>
       </c>
       <c r="G390">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H390">
         <v>16.2</v>
@@ -13671,8 +13604,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A391" s="3" t="s">
+    <row r="391" spans="1:10">
+      <c r="A391" t="s">
         <v>34</v>
       </c>
       <c r="B391" t="s">
@@ -13700,8 +13633,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A392" s="3" t="s">
+    <row r="392" spans="1:10">
+      <c r="A392" t="s">
         <v>34</v>
       </c>
       <c r="B392" t="s">
@@ -13729,8 +13662,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A393" s="3" t="s">
+    <row r="393" spans="1:10">
+      <c r="A393" t="s">
         <v>34</v>
       </c>
       <c r="B393" t="s">
@@ -13758,8 +13691,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A394" s="3" t="s">
+    <row r="394" spans="1:10">
+      <c r="A394" t="s">
         <v>34</v>
       </c>
       <c r="B394" t="s">
@@ -13787,8 +13720,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A395" s="3" t="s">
+    <row r="395" spans="1:10">
+      <c r="A395" t="s">
         <v>34</v>
       </c>
       <c r="B395" t="s">
@@ -13816,8 +13749,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A396" s="3" t="s">
+    <row r="396" spans="1:10">
+      <c r="A396" t="s">
         <v>34</v>
       </c>
       <c r="B396" t="s">
@@ -13845,8 +13778,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A397" s="3" t="s">
+    <row r="397" spans="1:10">
+      <c r="A397" t="s">
         <v>34</v>
       </c>
       <c r="B397" t="s">
@@ -13874,8 +13807,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A398" s="3" t="s">
+    <row r="398" spans="1:10">
+      <c r="A398" t="s">
         <v>34</v>
       </c>
       <c r="B398" t="s">
@@ -13903,8 +13836,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A399" s="3" t="s">
+    <row r="399" spans="1:10">
+      <c r="A399" t="s">
         <v>34</v>
       </c>
       <c r="B399" t="s">
@@ -13932,8 +13865,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A400" s="3" t="s">
+    <row r="400" spans="1:10">
+      <c r="A400" t="s">
         <v>34</v>
       </c>
       <c r="B400" t="s">
@@ -13949,7 +13882,7 @@
         <v>100</v>
       </c>
       <c r="G400">
-        <v>85.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="H400">
         <v>0</v>
@@ -13961,8 +13894,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A401" s="3" t="s">
+    <row r="401" spans="1:10">
+      <c r="A401" t="s">
         <v>34</v>
       </c>
       <c r="B401" t="s">
@@ -13975,7 +13908,7 @@
         <v>43.7</v>
       </c>
       <c r="F401">
-        <v>78.599999999999994</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G401">
         <v>33.9</v>
@@ -13990,8 +13923,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A402" s="3" t="s">
+    <row r="402" spans="1:10">
+      <c r="A402" t="s">
         <v>35</v>
       </c>
       <c r="B402" t="s">
@@ -14004,7 +13937,7 @@
         <v>29.3</v>
       </c>
       <c r="F402">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G402">
         <v>81.5</v>
@@ -14019,8 +13952,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A403" s="3" t="s">
+    <row r="403" spans="1:10">
+      <c r="A403" t="s">
         <v>35</v>
       </c>
       <c r="B403" t="s">
@@ -14030,10 +13963,10 @@
         <v>569</v>
       </c>
       <c r="E403">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="F403">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G403">
         <v>47.7</v>
@@ -14048,8 +13981,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A404" s="3" t="s">
+    <row r="404" spans="1:10">
+      <c r="A404" t="s">
         <v>35</v>
       </c>
       <c r="B404" t="s">
@@ -14059,10 +13992,10 @@
         <v>573</v>
       </c>
       <c r="E404">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="F404">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G404">
         <v>77.7</v>
@@ -14077,8 +14010,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A405" s="3" t="s">
+    <row r="405" spans="1:10">
+      <c r="A405" t="s">
         <v>35</v>
       </c>
       <c r="B405" t="s">
@@ -14091,7 +14024,7 @@
         <v>24.1</v>
       </c>
       <c r="F405">
-        <v>69.599999999999994</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G405">
         <v>58.8</v>
@@ -14106,8 +14039,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A406" s="3" t="s">
+    <row r="406" spans="1:10">
+      <c r="A406" t="s">
         <v>35</v>
       </c>
       <c r="B406" t="s">
@@ -14117,7 +14050,7 @@
         <v>546</v>
       </c>
       <c r="E406">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F406">
         <v>77.7</v>
@@ -14135,8 +14068,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A407" s="3" t="s">
+    <row r="407" spans="1:10">
+      <c r="A407" t="s">
         <v>35</v>
       </c>
       <c r="B407" t="s">
@@ -14164,8 +14097,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A408" s="3" t="s">
+    <row r="408" spans="1:10">
+      <c r="A408" t="s">
         <v>35</v>
       </c>
       <c r="B408" t="s">
@@ -14193,8 +14126,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A409" s="3" t="s">
+    <row r="409" spans="1:10">
+      <c r="A409" t="s">
         <v>35</v>
       </c>
       <c r="B409" t="s">
@@ -14204,7 +14137,7 @@
         <v>546</v>
       </c>
       <c r="E409">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F409">
         <v>85.7</v>
@@ -14222,8 +14155,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A410" s="3" t="s">
+    <row r="410" spans="1:10">
+      <c r="A410" t="s">
         <v>35</v>
       </c>
       <c r="B410" t="s">
@@ -14236,10 +14169,10 @@
         <v>24.4</v>
       </c>
       <c r="F410">
-        <v>84.1</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G410">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H410">
         <v>0</v>
@@ -14251,8 +14184,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A411" s="3" t="s">
+    <row r="411" spans="1:10">
+      <c r="A411" t="s">
         <v>35</v>
       </c>
       <c r="B411" t="s">
@@ -14262,13 +14195,13 @@
         <v>536</v>
       </c>
       <c r="E411">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F411">
         <v>76</v>
       </c>
       <c r="G411">
-        <v>70.099999999999994</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -14280,8 +14213,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A412" s="3" t="s">
+    <row r="412" spans="1:10">
+      <c r="A412" t="s">
         <v>35</v>
       </c>
       <c r="B412" t="s">
@@ -14309,8 +14242,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A413" s="3" t="s">
+    <row r="413" spans="1:10">
+      <c r="A413" t="s">
         <v>35</v>
       </c>
       <c r="B413" t="s">
@@ -14338,8 +14271,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A414" s="3" t="s">
+    <row r="414" spans="1:10">
+      <c r="A414" t="s">
         <v>35</v>
       </c>
       <c r="B414" t="s">
@@ -14349,10 +14282,10 @@
         <v>559</v>
       </c>
       <c r="E414">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="F414">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G414">
         <v>85.2</v>
@@ -14367,8 +14300,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A415" s="3" t="s">
+    <row r="415" spans="1:10">
+      <c r="A415" t="s">
         <v>35</v>
       </c>
       <c r="B415" t="s">
@@ -14378,7 +14311,7 @@
         <v>546</v>
       </c>
       <c r="E415">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="F415">
         <v>71.5</v>
@@ -14396,8 +14329,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A416" s="3" t="s">
+    <row r="416" spans="1:10">
+      <c r="A416" t="s">
         <v>35</v>
       </c>
       <c r="B416" t="s">
@@ -14410,7 +14343,7 @@
         <v>30.7</v>
       </c>
       <c r="F416">
-        <v>82.6</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G416">
         <v>52.2</v>
@@ -14425,8 +14358,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A417" s="3" t="s">
+    <row r="417" spans="1:10">
+      <c r="A417" t="s">
         <v>35</v>
       </c>
       <c r="B417" t="s">
@@ -14454,8 +14387,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A418" s="3" t="s">
+    <row r="418" spans="1:10">
+      <c r="A418" t="s">
         <v>35</v>
       </c>
       <c r="B418" t="s">
@@ -14483,8 +14416,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A419" s="3" t="s">
+    <row r="419" spans="1:10">
+      <c r="A419" t="s">
         <v>35</v>
       </c>
       <c r="B419" t="s">
@@ -14500,7 +14433,7 @@
         <v>100</v>
       </c>
       <c r="G419">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="H419">
         <v>0</v>
@@ -14512,8 +14445,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A420" s="3" t="s">
+    <row r="420" spans="1:10">
+      <c r="A420" t="s">
         <v>35</v>
       </c>
       <c r="B420" t="s">
@@ -14526,7 +14459,7 @@
         <v>41.7</v>
       </c>
       <c r="F420">
-        <v>67.099999999999994</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G420">
         <v>44.6</v>
@@ -14541,8 +14474,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A421" s="3" t="s">
+    <row r="421" spans="1:10">
+      <c r="A421" t="s">
         <v>35</v>
       </c>
       <c r="B421" t="s">
@@ -14570,8 +14503,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A422" s="3" t="s">
+    <row r="422" spans="1:10">
+      <c r="A422" t="s">
         <v>35</v>
       </c>
       <c r="B422" t="s">
@@ -14599,8 +14532,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A423" s="3" t="s">
+    <row r="423" spans="1:10">
+      <c r="A423" t="s">
         <v>35</v>
       </c>
       <c r="B423" t="s">
@@ -14616,7 +14549,7 @@
         <v>63.1</v>
       </c>
       <c r="G423">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H423">
         <v>0</v>
@@ -14628,8 +14561,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A424" s="3" t="s">
+    <row r="424" spans="1:10">
+      <c r="A424" t="s">
         <v>35</v>
       </c>
       <c r="B424" t="s">
@@ -14642,7 +14575,7 @@
         <v>20.3</v>
       </c>
       <c r="F424">
-        <v>87.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G424">
         <v>94.8</v>
@@ -14657,8 +14590,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A425" s="3" t="s">
+    <row r="425" spans="1:10">
+      <c r="A425" t="s">
         <v>35</v>
       </c>
       <c r="B425" t="s">
@@ -14686,8 +14619,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A426" s="3" t="s">
+    <row r="426" spans="1:10">
+      <c r="A426" t="s">
         <v>35</v>
       </c>
       <c r="B426" t="s">
@@ -14715,8 +14648,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A427" s="3" t="s">
+    <row r="427" spans="1:10">
+      <c r="A427" t="s">
         <v>35</v>
       </c>
       <c r="B427" t="s">
@@ -14732,7 +14665,7 @@
         <v>84.7</v>
       </c>
       <c r="G427">
-        <v>78.900000000000006</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="H427">
         <v>0</v>
@@ -14744,8 +14677,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A428" s="3" t="s">
+    <row r="428" spans="1:10">
+      <c r="A428" t="s">
         <v>35</v>
       </c>
       <c r="B428" t="s">
@@ -14758,7 +14691,7 @@
         <v>26.8</v>
       </c>
       <c r="F428">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G428">
         <v>86.7</v>
@@ -14773,8 +14706,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A429" s="3" t="s">
+    <row r="429" spans="1:10">
+      <c r="A429" t="s">
         <v>35</v>
       </c>
       <c r="B429" t="s">
@@ -14802,8 +14735,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A430" s="3" t="s">
+    <row r="430" spans="1:10">
+      <c r="A430" t="s">
         <v>35</v>
       </c>
       <c r="B430" t="s">
@@ -14819,7 +14752,7 @@
         <v>64</v>
       </c>
       <c r="G430">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="H430">
         <v>0</v>
@@ -14831,8 +14764,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A431" s="3" t="s">
+    <row r="431" spans="1:10">
+      <c r="A431" t="s">
         <v>35</v>
       </c>
       <c r="B431" t="s">
@@ -14848,7 +14781,7 @@
         <v>69.5</v>
       </c>
       <c r="G431">
-        <v>71.400000000000006</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H431">
         <v>0</v>
@@ -14860,8 +14793,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A432" s="3" t="s">
+    <row r="432" spans="1:10">
+      <c r="A432" t="s">
         <v>35</v>
       </c>
       <c r="B432" t="s">
@@ -14874,7 +14807,7 @@
         <v>28.4</v>
       </c>
       <c r="F432">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="G432">
         <v>83.2</v>
@@ -14889,8 +14822,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A433" s="3" t="s">
+    <row r="433" spans="1:10">
+      <c r="A433" t="s">
         <v>35</v>
       </c>
       <c r="B433" t="s">
@@ -14918,8 +14851,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A434" s="3" t="s">
+    <row r="434" spans="1:10">
+      <c r="A434" t="s">
         <v>35</v>
       </c>
       <c r="B434" t="s">
@@ -14947,8 +14880,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A435" s="3" t="s">
+    <row r="435" spans="1:10">
+      <c r="A435" t="s">
         <v>35</v>
       </c>
       <c r="B435" t="s">
@@ -14976,8 +14909,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A436" s="3" t="s">
+    <row r="436" spans="1:10">
+      <c r="A436" t="s">
         <v>35</v>
       </c>
       <c r="B436" t="s">
@@ -14993,7 +14926,7 @@
         <v>75.8</v>
       </c>
       <c r="G436">
-        <v>92.1</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="H436">
         <v>0</v>
@@ -15005,8 +14938,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A437" s="3" t="s">
+    <row r="437" spans="1:10">
+      <c r="A437" t="s">
         <v>35</v>
       </c>
       <c r="B437" t="s">
@@ -15034,8 +14967,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A438" s="3" t="s">
+    <row r="438" spans="1:10">
+      <c r="A438" t="s">
         <v>35</v>
       </c>
       <c r="B438" t="s">
@@ -15063,8 +14996,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A439" s="3" t="s">
+    <row r="439" spans="1:10">
+      <c r="A439" t="s">
         <v>35</v>
       </c>
       <c r="B439" t="s">
@@ -15077,7 +15010,7 @@
         <v>26.4</v>
       </c>
       <c r="F439">
-        <v>87.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G439">
         <v>61</v>
@@ -15092,8 +15025,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A440" s="3" t="s">
+    <row r="440" spans="1:10">
+      <c r="A440" t="s">
         <v>35</v>
       </c>
       <c r="B440" t="s">
@@ -15121,8 +15054,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A441" s="3" t="s">
+    <row r="441" spans="1:10">
+      <c r="A441" t="s">
         <v>35</v>
       </c>
       <c r="B441" t="s">
@@ -15138,7 +15071,7 @@
         <v>88.3</v>
       </c>
       <c r="G441">
-        <v>82.6</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="H441">
         <v>0</v>
@@ -15150,8 +15083,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A442" s="3" t="s">
+    <row r="442" spans="1:10">
+      <c r="A442" t="s">
         <v>35</v>
       </c>
       <c r="B442" t="s">
@@ -15179,8 +15112,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A443" s="3" t="s">
+    <row r="443" spans="1:10">
+      <c r="A443" t="s">
         <v>35</v>
       </c>
       <c r="B443" t="s">
@@ -15193,10 +15126,10 @@
         <v>41.9</v>
       </c>
       <c r="F443">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="G443">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="H443">
         <v>0</v>
@@ -15208,8 +15141,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A444" s="3" t="s">
+    <row r="444" spans="1:10">
+      <c r="A444" t="s">
         <v>35</v>
       </c>
       <c r="B444" t="s">
@@ -15237,8 +15170,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A445" s="3" t="s">
+    <row r="445" spans="1:10">
+      <c r="A445" t="s">
         <v>35</v>
       </c>
       <c r="B445" t="s">
@@ -15266,8 +15199,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A446" s="3" t="s">
+    <row r="446" spans="1:10">
+      <c r="A446" t="s">
         <v>35</v>
       </c>
       <c r="B446" t="s">
@@ -15280,7 +15213,7 @@
         <v>41.6</v>
       </c>
       <c r="F446">
-        <v>67.099999999999994</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G446">
         <v>48.3</v>
@@ -15295,8 +15228,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A447" s="3" t="s">
+    <row r="447" spans="1:10">
+      <c r="A447" t="s">
         <v>35</v>
       </c>
       <c r="B447" t="s">
@@ -15312,7 +15245,7 @@
         <v>79.5</v>
       </c>
       <c r="G447">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H447">
         <v>0</v>
@@ -15324,8 +15257,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A448" s="3" t="s">
+    <row r="448" spans="1:10">
+      <c r="A448" t="s">
         <v>35</v>
       </c>
       <c r="B448" t="s">
@@ -15353,8 +15286,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A449" s="3" t="s">
+    <row r="449" spans="1:10">
+      <c r="A449" t="s">
         <v>35</v>
       </c>
       <c r="B449" t="s">
@@ -15364,7 +15297,7 @@
         <v>546</v>
       </c>
       <c r="E449">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="F449">
         <v>80.5</v>
@@ -15382,8 +15315,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A450" s="3" t="s">
+    <row r="450" spans="1:10">
+      <c r="A450" t="s">
         <v>35</v>
       </c>
       <c r="B450" t="s">
@@ -15399,7 +15332,7 @@
         <v>59.6</v>
       </c>
       <c r="G450">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H450">
         <v>16.2</v>
@@ -15411,8 +15344,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A451" s="3" t="s">
+    <row r="451" spans="1:10">
+      <c r="A451" t="s">
         <v>35</v>
       </c>
       <c r="B451" t="s">
@@ -15422,10 +15355,10 @@
         <v>546</v>
       </c>
       <c r="E451">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F451">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="G451">
         <v>58.8</v>
@@ -15440,8 +15373,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A452" s="3" t="s">
+    <row r="452" spans="1:10">
+      <c r="A452" t="s">
         <v>35</v>
       </c>
       <c r="B452" t="s">
@@ -15469,8 +15402,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A453" s="3" t="s">
+    <row r="453" spans="1:10">
+      <c r="A453" t="s">
         <v>35</v>
       </c>
       <c r="B453" t="s">
@@ -15486,7 +15419,7 @@
         <v>55.7</v>
       </c>
       <c r="G453">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H453">
         <v>16.2</v>
@@ -15498,8 +15431,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A454" s="3" t="s">
+    <row r="454" spans="1:10">
+      <c r="A454" t="s">
         <v>35</v>
       </c>
       <c r="B454" t="s">
@@ -15527,8 +15460,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A455" s="3" t="s">
+    <row r="455" spans="1:10">
+      <c r="A455" t="s">
         <v>35</v>
       </c>
       <c r="B455" t="s">
@@ -15541,10 +15474,10 @@
         <v>30.7</v>
       </c>
       <c r="F455">
-        <v>75.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G455">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H455">
         <v>0</v>
@@ -15556,8 +15489,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A456" s="3" t="s">
+    <row r="456" spans="1:10">
+      <c r="A456" t="s">
         <v>35</v>
       </c>
       <c r="B456" t="s">
@@ -15570,7 +15503,7 @@
         <v>26.4</v>
       </c>
       <c r="F456">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G456">
         <v>84.2</v>
@@ -15585,8 +15518,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A457" s="3" t="s">
+    <row r="457" spans="1:10">
+      <c r="A457" t="s">
         <v>35</v>
       </c>
       <c r="B457" t="s">
@@ -15614,8 +15547,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A458" s="3" t="s">
+    <row r="458" spans="1:10">
+      <c r="A458" t="s">
         <v>35</v>
       </c>
       <c r="B458" t="s">
@@ -15643,8 +15576,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A459" s="3" t="s">
+    <row r="459" spans="1:10">
+      <c r="A459" t="s">
         <v>35</v>
       </c>
       <c r="B459" t="s">
@@ -15654,7 +15587,7 @@
         <v>540</v>
       </c>
       <c r="E459">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="F459">
         <v>62.2</v>
@@ -15672,8 +15605,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A460" s="3" t="s">
+    <row r="460" spans="1:10">
+      <c r="A460" t="s">
         <v>35</v>
       </c>
       <c r="B460" t="s">
@@ -15683,10 +15616,10 @@
         <v>563</v>
       </c>
       <c r="E460">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F460">
-        <v>68.099999999999994</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G460">
         <v>76.7</v>
@@ -15701,8 +15634,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A461" s="3" t="s">
+    <row r="461" spans="1:10">
+      <c r="A461" t="s">
         <v>35</v>
       </c>
       <c r="B461" t="s">
@@ -15730,8 +15663,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A462" s="3" t="s">
+    <row r="462" spans="1:10">
+      <c r="A462" t="s">
         <v>35</v>
       </c>
       <c r="B462" t="s">
@@ -15759,8 +15692,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A463" s="3" t="s">
+    <row r="463" spans="1:10">
+      <c r="A463" t="s">
         <v>35</v>
       </c>
       <c r="B463" t="s">
@@ -15773,10 +15706,10 @@
         <v>31.7</v>
       </c>
       <c r="F463">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G463">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H463">
         <v>0</v>
@@ -15788,8 +15721,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A464" s="3" t="s">
+    <row r="464" spans="1:10">
+      <c r="A464" t="s">
         <v>35</v>
       </c>
       <c r="B464" t="s">
@@ -15799,7 +15732,7 @@
         <v>554</v>
       </c>
       <c r="E464">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="F464">
         <v>60.1</v>
@@ -15817,8 +15750,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A465" s="3" t="s">
+    <row r="465" spans="1:10">
+      <c r="A465" t="s">
         <v>35</v>
       </c>
       <c r="B465" t="s">
@@ -15843,8 +15776,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A466" s="3" t="s">
+    <row r="466" spans="1:10">
+      <c r="A466" t="s">
         <v>35</v>
       </c>
       <c r="B466" t="s">
@@ -15854,10 +15787,10 @@
         <v>562</v>
       </c>
       <c r="E466">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="F466">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G466">
         <v>88.2</v>
@@ -15872,8 +15805,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A467" s="3" t="s">
+    <row r="467" spans="1:10">
+      <c r="A467" t="s">
         <v>35</v>
       </c>
       <c r="B467" t="s">
@@ -15886,7 +15819,7 @@
         <v>27.6</v>
       </c>
       <c r="F467">
-        <v>82.9</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="G467">
         <v>73</v>
@@ -15901,8 +15834,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A468" s="3" t="s">
+    <row r="468" spans="1:10">
+      <c r="A468" t="s">
         <v>35</v>
       </c>
       <c r="B468" t="s">
@@ -15930,8 +15863,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A469" s="3" t="s">
+    <row r="469" spans="1:10">
+      <c r="A469" t="s">
         <v>35</v>
       </c>
       <c r="B469" t="s">
@@ -15944,10 +15877,10 @@
         <v>37.5</v>
       </c>
       <c r="F469">
-        <v>67.599999999999994</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="G469">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H469">
         <v>0</v>
@@ -15959,8 +15892,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A470" s="3" t="s">
+    <row r="470" spans="1:10">
+      <c r="A470" t="s">
         <v>35</v>
       </c>
       <c r="B470" t="s">
@@ -15988,8 +15921,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A471" s="3" t="s">
+    <row r="471" spans="1:10">
+      <c r="A471" t="s">
         <v>35</v>
       </c>
       <c r="B471" t="s">
@@ -16005,7 +15938,7 @@
         <v>75.7</v>
       </c>
       <c r="G471">
-        <v>70.599999999999994</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H471">
         <v>16.2</v>
@@ -16017,8 +15950,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A472" s="3" t="s">
+    <row r="472" spans="1:10">
+      <c r="A472" t="s">
         <v>35</v>
       </c>
       <c r="B472" t="s">
@@ -16031,7 +15964,7 @@
         <v>30.4</v>
       </c>
       <c r="F472">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G472">
         <v>70.7</v>
@@ -16046,8 +15979,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A473" s="3" t="s">
+    <row r="473" spans="1:10">
+      <c r="A473" t="s">
         <v>35</v>
       </c>
       <c r="B473" t="s">
@@ -16060,7 +15993,7 @@
         <v>33.4</v>
       </c>
       <c r="F473">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="G473">
         <v>75.3</v>
@@ -16075,8 +16008,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A474" s="3" t="s">
+    <row r="474" spans="1:10">
+      <c r="A474" t="s">
         <v>35</v>
       </c>
       <c r="B474" t="s">
@@ -16104,8 +16037,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A475" s="3" t="s">
+    <row r="475" spans="1:10">
+      <c r="A475" t="s">
         <v>35</v>
       </c>
       <c r="B475" t="s">
@@ -16121,7 +16054,7 @@
         <v>76.7</v>
       </c>
       <c r="G475">
-        <v>91.4</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="H475">
         <v>0</v>
@@ -16133,8 +16066,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A476" s="3" t="s">
+    <row r="476" spans="1:10">
+      <c r="A476" t="s">
         <v>35</v>
       </c>
       <c r="B476" t="s">
@@ -16162,8 +16095,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A477" s="3" t="s">
+    <row r="477" spans="1:10">
+      <c r="A477" t="s">
         <v>35</v>
       </c>
       <c r="B477" t="s">
@@ -16179,7 +16112,7 @@
         <v>55.5</v>
       </c>
       <c r="G477">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="H477">
         <v>16.2</v>
@@ -16191,8 +16124,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A478" s="3" t="s">
+    <row r="478" spans="1:10">
+      <c r="A478" t="s">
         <v>35</v>
       </c>
       <c r="B478" t="s">
@@ -16208,7 +16141,7 @@
         <v>81.7</v>
       </c>
       <c r="G478">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="H478">
         <v>0</v>
@@ -16220,8 +16153,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A479" s="3" t="s">
+    <row r="479" spans="1:10">
+      <c r="A479" t="s">
         <v>35</v>
       </c>
       <c r="B479" t="s">
@@ -16231,7 +16164,7 @@
         <v>537</v>
       </c>
       <c r="E479">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="F479">
         <v>66</v>
@@ -16249,8 +16182,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A480" s="3" t="s">
+    <row r="480" spans="1:10">
+      <c r="A480" t="s">
         <v>35</v>
       </c>
       <c r="B480" t="s">
@@ -16266,7 +16199,7 @@
         <v>66.3</v>
       </c>
       <c r="G480">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="H480">
         <v>16.2</v>
@@ -16278,8 +16211,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A481" s="3" t="s">
+    <row r="481" spans="1:10">
+      <c r="A481" t="s">
         <v>35</v>
       </c>
       <c r="B481" t="s">
@@ -16295,7 +16228,7 @@
         <v>58.2</v>
       </c>
       <c r="G481">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H481">
         <v>16.2</v>
@@ -16307,8 +16240,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A482" s="3" t="s">
+    <row r="482" spans="1:10">
+      <c r="A482" t="s">
         <v>35</v>
       </c>
       <c r="B482" t="s">
@@ -16321,10 +16254,10 @@
         <v>20.8</v>
       </c>
       <c r="F482">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G482">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H482">
         <v>16.2</v>
@@ -16336,8 +16269,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A483" s="3" t="s">
+    <row r="483" spans="1:10">
+      <c r="A483" t="s">
         <v>35</v>
       </c>
       <c r="B483" t="s">
@@ -16350,7 +16283,7 @@
         <v>25.8</v>
       </c>
       <c r="F483">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G483">
         <v>65</v>
@@ -16365,8 +16298,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A484" s="3" t="s">
+    <row r="484" spans="1:10">
+      <c r="A484" t="s">
         <v>35</v>
       </c>
       <c r="B484" t="s">
@@ -16379,7 +16312,7 @@
         <v>30.5</v>
       </c>
       <c r="F484">
-        <v>71.400000000000006</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G484">
         <v>76.7</v>
@@ -16394,8 +16327,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A485" s="3" t="s">
+    <row r="485" spans="1:10">
+      <c r="A485" t="s">
         <v>35</v>
       </c>
       <c r="B485" t="s">
@@ -16405,13 +16338,13 @@
         <v>554</v>
       </c>
       <c r="E485">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="F485">
         <v>72</v>
       </c>
       <c r="G485">
-        <v>78.599999999999994</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H485">
         <v>0</v>
@@ -16423,8 +16356,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A486" s="3" t="s">
+    <row r="486" spans="1:10">
+      <c r="A486" t="s">
         <v>35</v>
       </c>
       <c r="B486" t="s">
@@ -16434,10 +16367,10 @@
         <v>546</v>
       </c>
       <c r="E486">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="F486">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G486">
         <v>54.3</v>
@@ -16452,8 +16385,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A487" s="3" t="s">
+    <row r="487" spans="1:10">
+      <c r="A487" t="s">
         <v>35</v>
       </c>
       <c r="B487" t="s">
@@ -16481,8 +16414,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A488" s="3" t="s">
+    <row r="488" spans="1:10">
+      <c r="A488" t="s">
         <v>35</v>
       </c>
       <c r="B488" t="s">
@@ -16498,7 +16431,7 @@
         <v>70.3</v>
       </c>
       <c r="G488">
-        <v>71.400000000000006</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H488">
         <v>0</v>
@@ -16510,8 +16443,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A489" s="3" t="s">
+    <row r="489" spans="1:10">
+      <c r="A489" t="s">
         <v>35</v>
       </c>
       <c r="B489" t="s">
@@ -16539,8 +16472,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A490" s="3" t="s">
+    <row r="490" spans="1:10">
+      <c r="A490" t="s">
         <v>35</v>
       </c>
       <c r="B490" t="s">
@@ -16568,8 +16501,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A491" s="3" t="s">
+    <row r="491" spans="1:10">
+      <c r="A491" t="s">
         <v>35</v>
       </c>
       <c r="B491" t="s">
@@ -16579,13 +16512,13 @@
         <v>547</v>
       </c>
       <c r="E491">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="F491">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G491">
-        <v>65.900000000000006</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="H491">
         <v>0</v>
@@ -16597,8 +16530,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A492" s="3" t="s">
+    <row r="492" spans="1:10">
+      <c r="A492" t="s">
         <v>35</v>
       </c>
       <c r="B492" t="s">
@@ -16626,8 +16559,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A493" s="3" t="s">
+    <row r="493" spans="1:10">
+      <c r="A493" t="s">
         <v>35</v>
       </c>
       <c r="B493" t="s">
@@ -16643,7 +16576,7 @@
         <v>73.2</v>
       </c>
       <c r="G493">
-        <v>79.400000000000006</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="H493">
         <v>0</v>
@@ -16655,8 +16588,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A494" s="3" t="s">
+    <row r="494" spans="1:10">
+      <c r="A494" t="s">
         <v>35</v>
       </c>
       <c r="B494" t="s">
@@ -16684,8 +16617,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A495" s="3" t="s">
+    <row r="495" spans="1:10">
+      <c r="A495" t="s">
         <v>35</v>
       </c>
       <c r="B495" t="s">
@@ -16713,8 +16646,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A496" s="3" t="s">
+    <row r="496" spans="1:10">
+      <c r="A496" t="s">
         <v>35</v>
       </c>
       <c r="B496" t="s">
@@ -16727,7 +16660,7 @@
         <v>34.4</v>
       </c>
       <c r="F496">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G496">
         <v>65.5</v>
@@ -16742,8 +16675,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A497" s="3" t="s">
+    <row r="497" spans="1:10">
+      <c r="A497" t="s">
         <v>35</v>
       </c>
       <c r="B497" t="s">
@@ -16759,7 +16692,7 @@
         <v>63.6</v>
       </c>
       <c r="G497">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H497">
         <v>16.2</v>
@@ -16771,8 +16704,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A498" s="3" t="s">
+    <row r="498" spans="1:10">
+      <c r="A498" t="s">
         <v>35</v>
       </c>
       <c r="B498" t="s">
@@ -16785,7 +16718,7 @@
         <v>38.9</v>
       </c>
       <c r="F498">
-        <v>67.099999999999994</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G498">
         <v>62.9</v>
@@ -16800,8 +16733,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A499" s="3" t="s">
+    <row r="499" spans="1:10">
+      <c r="A499" t="s">
         <v>35</v>
       </c>
       <c r="B499" t="s">
@@ -16811,7 +16744,7 @@
         <v>546</v>
       </c>
       <c r="E499">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="F499">
         <v>68.8</v>
@@ -16829,8 +16762,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A500" s="3" t="s">
+    <row r="500" spans="1:10">
+      <c r="A500" t="s">
         <v>35</v>
       </c>
       <c r="B500" t="s">
@@ -16846,7 +16779,7 @@
         <v>68.3</v>
       </c>
       <c r="G500">
-        <v>83.4</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H500">
         <v>0</v>
@@ -16858,8 +16791,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A501" s="3" t="s">
+    <row r="501" spans="1:10">
+      <c r="A501" t="s">
         <v>35</v>
       </c>
       <c r="B501" t="s">
